--- a/school_2/school_2_KP.xlsx
+++ b/school_2/school_2_KP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="607" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ТКП" sheetId="1" r:id="rId1"/>
@@ -2510,7 +2510,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2556,30 +2556,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2685,7 +2661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2793,17 +2769,38 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2835,52 +2832,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3277,217 +3241,217 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
     </row>
     <row r="5" spans="1:35" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="49" t="s">
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56" t="s">
         <v>780</v>
       </c>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="49">
+      <c r="Q5" s="57"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="56">
         <v>9701212867</v>
       </c>
-      <c r="T5" s="50"/>
-      <c r="U5" s="51"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="58"/>
     </row>
     <row r="6" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="55" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="52" t="s">
+      <c r="K6" s="41"/>
+      <c r="L6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="56"/>
-      <c r="O6" s="52" t="s">
+      <c r="N6" s="41"/>
+      <c r="O6" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="52" t="s">
+      <c r="Q6" s="41"/>
+      <c r="R6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="55" t="s">
+      <c r="S6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="56"/>
-      <c r="U6" s="52" t="s">
+      <c r="T6" s="41"/>
+      <c r="U6" s="48" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="54"/>
+      <c r="O7" s="49"/>
       <c r="P7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="54"/>
+      <c r="R7" s="49"/>
       <c r="S7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="54"/>
+      <c r="U7" s="49"/>
     </row>
     <row r="8" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -3541,15 +3505,15 @@
       <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
       <c r="M9" s="6">
         <f t="shared" si="0"/>
         <v>21918840.049999997</v>
@@ -3600,15 +3564,15 @@
       <c r="B10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
       <c r="M10" s="6">
         <f t="shared" si="0"/>
         <v>21918840.049999997</v>
@@ -3659,15 +3623,15 @@
       <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
       <c r="M11" s="6">
         <f t="shared" si="0"/>
         <v>21918840.049999997</v>
@@ -3718,15 +3682,15 @@
       <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
       <c r="M12" s="6">
         <f>SUM(M13,M66,M148,M169)</f>
         <v>21918840.049999997</v>
@@ -3777,15 +3741,15 @@
       <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
       <c r="M13" s="6">
         <f>SUM(M14,M37,M45)</f>
         <v>3570644.12</v>
@@ -3836,15 +3800,15 @@
       <c r="B14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
       <c r="M14" s="6">
         <f>SUM(M15,M19,M21,M29)</f>
         <v>2618573.91</v>
@@ -5269,15 +5233,15 @@
       <c r="B37" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
       <c r="M37" s="6">
         <f>SUM(M38,M41,M43)</f>
         <v>122933.90000000001</v>
@@ -5862,15 +5826,15 @@
       <c r="B45" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
       <c r="M45" s="6">
         <f>SUM(M46,M51,M55,M60,M63)</f>
         <v>829136.31</v>
@@ -7265,15 +7229,15 @@
       <c r="B66" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="62"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="44"/>
       <c r="M66" s="6">
         <f>SUM(M67,M97,M128)</f>
         <v>4332566.72</v>
@@ -7324,15 +7288,15 @@
       <c r="B67" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="62"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="44"/>
       <c r="M67" s="6">
         <f>SUM(M68,M71,M75,M79,M82,M85,M89,M92)</f>
         <v>2963619.5900000003</v>
@@ -9359,15 +9323,15 @@
       <c r="B97" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="60" t="s">
+      <c r="C97" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="62"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="44"/>
       <c r="M97" s="6">
         <f>SUM(M98,M107,M110,M113,M116,M119,M122,M125)</f>
         <v>1187256.6599999997</v>
@@ -11446,15 +11410,15 @@
       <c r="B128" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C128" s="60" t="s">
+      <c r="C128" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="D128" s="61"/>
-      <c r="E128" s="61"/>
-      <c r="F128" s="61"/>
-      <c r="G128" s="61"/>
-      <c r="H128" s="61"/>
-      <c r="I128" s="62"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="44"/>
       <c r="M128" s="6">
         <f>SUM(M129,M132,M135,M138,M143)</f>
         <v>181690.47</v>
@@ -12777,15 +12741,15 @@
       <c r="B148" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="C148" s="60" t="s">
+      <c r="C148" s="42" t="s">
         <v>617</v>
       </c>
-      <c r="D148" s="61"/>
-      <c r="E148" s="61"/>
-      <c r="F148" s="61"/>
-      <c r="G148" s="61"/>
-      <c r="H148" s="61"/>
-      <c r="I148" s="62"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="43"/>
+      <c r="F148" s="43"/>
+      <c r="G148" s="43"/>
+      <c r="H148" s="43"/>
+      <c r="I148" s="44"/>
       <c r="M148" s="6">
         <f>SUM(M149,M153)</f>
         <v>447303.98</v>
@@ -12836,15 +12800,15 @@
       <c r="B149" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C149" s="60" t="s">
+      <c r="C149" s="42" t="s">
         <v>620</v>
       </c>
-      <c r="D149" s="61"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="61"/>
-      <c r="G149" s="61"/>
-      <c r="H149" s="61"/>
-      <c r="I149" s="62"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="43"/>
+      <c r="I149" s="44"/>
       <c r="M149" s="6">
         <f>SUM(M150)</f>
         <v>241468.92</v>
@@ -13107,15 +13071,15 @@
       <c r="B153" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C153" s="60" t="s">
+      <c r="C153" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="D153" s="61"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="61"/>
-      <c r="G153" s="61"/>
-      <c r="H153" s="61"/>
-      <c r="I153" s="62"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="44"/>
       <c r="M153" s="6">
         <f>SUM(M154,M157,M160,M163,M166)</f>
         <v>205835.06</v>
@@ -14238,15 +14202,15 @@
       <c r="B169" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C169" s="60" t="s">
+      <c r="C169" s="42" t="s">
         <v>684</v>
       </c>
-      <c r="D169" s="61"/>
-      <c r="E169" s="61"/>
-      <c r="F169" s="61"/>
-      <c r="G169" s="61"/>
-      <c r="H169" s="61"/>
-      <c r="I169" s="62"/>
+      <c r="D169" s="43"/>
+      <c r="E169" s="43"/>
+      <c r="F169" s="43"/>
+      <c r="G169" s="43"/>
+      <c r="H169" s="43"/>
+      <c r="I169" s="44"/>
       <c r="M169" s="6">
         <f>SUM(M170,M173,M177)</f>
         <v>13568325.229999999</v>
@@ -14924,29 +14888,29 @@
       </c>
     </row>
     <row r="179" spans="1:35" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="57" t="s">
+      <c r="A179" s="45" t="s">
         <v>728</v>
       </c>
-      <c r="B179" s="58"/>
-      <c r="C179" s="58"/>
-      <c r="D179" s="58"/>
-      <c r="E179" s="58"/>
-      <c r="F179" s="58"/>
-      <c r="G179" s="58"/>
-      <c r="H179" s="58"/>
-      <c r="I179" s="58"/>
-      <c r="J179" s="58"/>
-      <c r="K179" s="58"/>
-      <c r="L179" s="58"/>
-      <c r="M179" s="58"/>
-      <c r="N179" s="58"/>
-      <c r="O179" s="58"/>
-      <c r="P179" s="58"/>
-      <c r="Q179" s="58"/>
-      <c r="R179" s="58"/>
-      <c r="S179" s="58"/>
-      <c r="T179" s="58"/>
-      <c r="U179" s="59"/>
+      <c r="B179" s="46"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="46"/>
+      <c r="F179" s="46"/>
+      <c r="G179" s="46"/>
+      <c r="H179" s="46"/>
+      <c r="I179" s="46"/>
+      <c r="J179" s="46"/>
+      <c r="K179" s="46"/>
+      <c r="L179" s="46"/>
+      <c r="M179" s="46"/>
+      <c r="N179" s="46"/>
+      <c r="O179" s="46"/>
+      <c r="P179" s="46"/>
+      <c r="Q179" s="46"/>
+      <c r="R179" s="46"/>
+      <c r="S179" s="46"/>
+      <c r="T179" s="46"/>
+      <c r="U179" s="47"/>
     </row>
     <row r="180" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="30"/>
@@ -14962,20 +14926,20 @@
       <c r="E180" s="31"/>
       <c r="F180" s="31"/>
       <c r="G180" s="31"/>
-      <c r="H180" s="55"/>
-      <c r="I180" s="63"/>
-      <c r="J180" s="63"/>
-      <c r="K180" s="63"/>
-      <c r="L180" s="63"/>
-      <c r="M180" s="63"/>
-      <c r="N180" s="63"/>
-      <c r="O180" s="63"/>
-      <c r="P180" s="63"/>
-      <c r="Q180" s="63"/>
-      <c r="R180" s="63"/>
-      <c r="S180" s="63"/>
-      <c r="T180" s="63"/>
-      <c r="U180" s="56"/>
+      <c r="H180" s="39"/>
+      <c r="I180" s="40"/>
+      <c r="J180" s="40"/>
+      <c r="K180" s="40"/>
+      <c r="L180" s="40"/>
+      <c r="M180" s="40"/>
+      <c r="N180" s="40"/>
+      <c r="O180" s="40"/>
+      <c r="P180" s="40"/>
+      <c r="Q180" s="40"/>
+      <c r="R180" s="40"/>
+      <c r="S180" s="40"/>
+      <c r="T180" s="40"/>
+      <c r="U180" s="41"/>
     </row>
     <row r="181" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="30"/>
@@ -14991,20 +14955,20 @@
       <c r="E181" s="31"/>
       <c r="F181" s="31"/>
       <c r="G181" s="31"/>
-      <c r="H181" s="55"/>
-      <c r="I181" s="63"/>
-      <c r="J181" s="63"/>
-      <c r="K181" s="63"/>
-      <c r="L181" s="63"/>
-      <c r="M181" s="63"/>
-      <c r="N181" s="63"/>
-      <c r="O181" s="63"/>
-      <c r="P181" s="63"/>
-      <c r="Q181" s="63"/>
-      <c r="R181" s="63"/>
-      <c r="S181" s="63"/>
-      <c r="T181" s="63"/>
-      <c r="U181" s="56"/>
+      <c r="H181" s="39"/>
+      <c r="I181" s="40"/>
+      <c r="J181" s="40"/>
+      <c r="K181" s="40"/>
+      <c r="L181" s="40"/>
+      <c r="M181" s="40"/>
+      <c r="N181" s="40"/>
+      <c r="O181" s="40"/>
+      <c r="P181" s="40"/>
+      <c r="Q181" s="40"/>
+      <c r="R181" s="40"/>
+      <c r="S181" s="40"/>
+      <c r="T181" s="40"/>
+      <c r="U181" s="41"/>
     </row>
     <row r="182" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A182" s="30"/>
@@ -15020,20 +14984,20 @@
       <c r="E182" s="31"/>
       <c r="F182" s="31"/>
       <c r="G182" s="31"/>
-      <c r="H182" s="55"/>
-      <c r="I182" s="63"/>
-      <c r="J182" s="63"/>
-      <c r="K182" s="63"/>
-      <c r="L182" s="63"/>
-      <c r="M182" s="63"/>
-      <c r="N182" s="63"/>
-      <c r="O182" s="63"/>
-      <c r="P182" s="63"/>
-      <c r="Q182" s="63"/>
-      <c r="R182" s="63"/>
-      <c r="S182" s="63"/>
-      <c r="T182" s="63"/>
-      <c r="U182" s="56"/>
+      <c r="H182" s="39"/>
+      <c r="I182" s="40"/>
+      <c r="J182" s="40"/>
+      <c r="K182" s="40"/>
+      <c r="L182" s="40"/>
+      <c r="M182" s="40"/>
+      <c r="N182" s="40"/>
+      <c r="O182" s="40"/>
+      <c r="P182" s="40"/>
+      <c r="Q182" s="40"/>
+      <c r="R182" s="40"/>
+      <c r="S182" s="40"/>
+      <c r="T182" s="40"/>
+      <c r="U182" s="41"/>
     </row>
     <row r="183" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="30"/>
@@ -15049,20 +15013,20 @@
       <c r="E183" s="31"/>
       <c r="F183" s="31"/>
       <c r="G183" s="31"/>
-      <c r="H183" s="55"/>
-      <c r="I183" s="63"/>
-      <c r="J183" s="63"/>
-      <c r="K183" s="63"/>
-      <c r="L183" s="63"/>
-      <c r="M183" s="63"/>
-      <c r="N183" s="63"/>
-      <c r="O183" s="63"/>
-      <c r="P183" s="63"/>
-      <c r="Q183" s="63"/>
-      <c r="R183" s="63"/>
-      <c r="S183" s="63"/>
-      <c r="T183" s="63"/>
-      <c r="U183" s="56"/>
+      <c r="H183" s="39"/>
+      <c r="I183" s="40"/>
+      <c r="J183" s="40"/>
+      <c r="K183" s="40"/>
+      <c r="L183" s="40"/>
+      <c r="M183" s="40"/>
+      <c r="N183" s="40"/>
+      <c r="O183" s="40"/>
+      <c r="P183" s="40"/>
+      <c r="Q183" s="40"/>
+      <c r="R183" s="40"/>
+      <c r="S183" s="40"/>
+      <c r="T183" s="40"/>
+      <c r="U183" s="41"/>
     </row>
     <row r="184" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="30"/>
@@ -15078,20 +15042,20 @@
       <c r="E184" s="31"/>
       <c r="F184" s="31"/>
       <c r="G184" s="31"/>
-      <c r="H184" s="55"/>
-      <c r="I184" s="63"/>
-      <c r="J184" s="63"/>
-      <c r="K184" s="63"/>
-      <c r="L184" s="63"/>
-      <c r="M184" s="63"/>
-      <c r="N184" s="63"/>
-      <c r="O184" s="63"/>
-      <c r="P184" s="63"/>
-      <c r="Q184" s="63"/>
-      <c r="R184" s="63"/>
-      <c r="S184" s="63"/>
-      <c r="T184" s="63"/>
-      <c r="U184" s="56"/>
+      <c r="H184" s="39"/>
+      <c r="I184" s="40"/>
+      <c r="J184" s="40"/>
+      <c r="K184" s="40"/>
+      <c r="L184" s="40"/>
+      <c r="M184" s="40"/>
+      <c r="N184" s="40"/>
+      <c r="O184" s="40"/>
+      <c r="P184" s="40"/>
+      <c r="Q184" s="40"/>
+      <c r="R184" s="40"/>
+      <c r="S184" s="40"/>
+      <c r="T184" s="40"/>
+      <c r="U184" s="41"/>
     </row>
     <row r="185" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="30"/>
@@ -15107,20 +15071,20 @@
       <c r="E185" s="31"/>
       <c r="F185" s="31"/>
       <c r="G185" s="31"/>
-      <c r="H185" s="55"/>
-      <c r="I185" s="63"/>
-      <c r="J185" s="63"/>
-      <c r="K185" s="63"/>
-      <c r="L185" s="63"/>
-      <c r="M185" s="63"/>
-      <c r="N185" s="63"/>
-      <c r="O185" s="63"/>
-      <c r="P185" s="63"/>
-      <c r="Q185" s="63"/>
-      <c r="R185" s="63"/>
-      <c r="S185" s="63"/>
-      <c r="T185" s="63"/>
-      <c r="U185" s="56"/>
+      <c r="H185" s="39"/>
+      <c r="I185" s="40"/>
+      <c r="J185" s="40"/>
+      <c r="K185" s="40"/>
+      <c r="L185" s="40"/>
+      <c r="M185" s="40"/>
+      <c r="N185" s="40"/>
+      <c r="O185" s="40"/>
+      <c r="P185" s="40"/>
+      <c r="Q185" s="40"/>
+      <c r="R185" s="40"/>
+      <c r="S185" s="40"/>
+      <c r="T185" s="40"/>
+      <c r="U185" s="41"/>
     </row>
     <row r="186" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A186" s="30"/>
@@ -15136,20 +15100,20 @@
       <c r="E186" s="31"/>
       <c r="F186" s="31"/>
       <c r="G186" s="31"/>
-      <c r="H186" s="55"/>
-      <c r="I186" s="63"/>
-      <c r="J186" s="63"/>
-      <c r="K186" s="63"/>
-      <c r="L186" s="63"/>
-      <c r="M186" s="63"/>
-      <c r="N186" s="63"/>
-      <c r="O186" s="63"/>
-      <c r="P186" s="63"/>
-      <c r="Q186" s="63"/>
-      <c r="R186" s="63"/>
-      <c r="S186" s="63"/>
-      <c r="T186" s="63"/>
-      <c r="U186" s="56"/>
+      <c r="H186" s="39"/>
+      <c r="I186" s="40"/>
+      <c r="J186" s="40"/>
+      <c r="K186" s="40"/>
+      <c r="L186" s="40"/>
+      <c r="M186" s="40"/>
+      <c r="N186" s="40"/>
+      <c r="O186" s="40"/>
+      <c r="P186" s="40"/>
+      <c r="Q186" s="40"/>
+      <c r="R186" s="40"/>
+      <c r="S186" s="40"/>
+      <c r="T186" s="40"/>
+      <c r="U186" s="41"/>
     </row>
     <row r="187" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="30"/>
@@ -15165,20 +15129,20 @@
       <c r="E187" s="31"/>
       <c r="F187" s="31"/>
       <c r="G187" s="31"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="63"/>
-      <c r="J187" s="63"/>
-      <c r="K187" s="63"/>
-      <c r="L187" s="63"/>
-      <c r="M187" s="63"/>
-      <c r="N187" s="63"/>
-      <c r="O187" s="63"/>
-      <c r="P187" s="63"/>
-      <c r="Q187" s="63"/>
-      <c r="R187" s="63"/>
-      <c r="S187" s="63"/>
-      <c r="T187" s="63"/>
-      <c r="U187" s="56"/>
+      <c r="H187" s="39"/>
+      <c r="I187" s="40"/>
+      <c r="J187" s="40"/>
+      <c r="K187" s="40"/>
+      <c r="L187" s="40"/>
+      <c r="M187" s="40"/>
+      <c r="N187" s="40"/>
+      <c r="O187" s="40"/>
+      <c r="P187" s="40"/>
+      <c r="Q187" s="40"/>
+      <c r="R187" s="40"/>
+      <c r="S187" s="40"/>
+      <c r="T187" s="40"/>
+      <c r="U187" s="41"/>
     </row>
     <row r="188" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="30"/>
@@ -15194,20 +15158,20 @@
       <c r="E188" s="31"/>
       <c r="F188" s="31"/>
       <c r="G188" s="31"/>
-      <c r="H188" s="55"/>
-      <c r="I188" s="63"/>
-      <c r="J188" s="63"/>
-      <c r="K188" s="63"/>
-      <c r="L188" s="63"/>
-      <c r="M188" s="63"/>
-      <c r="N188" s="63"/>
-      <c r="O188" s="63"/>
-      <c r="P188" s="63"/>
-      <c r="Q188" s="63"/>
-      <c r="R188" s="63"/>
-      <c r="S188" s="63"/>
-      <c r="T188" s="63"/>
-      <c r="U188" s="56"/>
+      <c r="H188" s="39"/>
+      <c r="I188" s="40"/>
+      <c r="J188" s="40"/>
+      <c r="K188" s="40"/>
+      <c r="L188" s="40"/>
+      <c r="M188" s="40"/>
+      <c r="N188" s="40"/>
+      <c r="O188" s="40"/>
+      <c r="P188" s="40"/>
+      <c r="Q188" s="40"/>
+      <c r="R188" s="40"/>
+      <c r="S188" s="40"/>
+      <c r="T188" s="40"/>
+      <c r="U188" s="41"/>
     </row>
     <row r="189" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A189" s="30"/>
@@ -15223,20 +15187,20 @@
       <c r="E189" s="31"/>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
-      <c r="H189" s="55"/>
-      <c r="I189" s="63"/>
-      <c r="J189" s="63"/>
-      <c r="K189" s="63"/>
-      <c r="L189" s="63"/>
-      <c r="M189" s="63"/>
-      <c r="N189" s="63"/>
-      <c r="O189" s="63"/>
-      <c r="P189" s="63"/>
-      <c r="Q189" s="63"/>
-      <c r="R189" s="63"/>
-      <c r="S189" s="63"/>
-      <c r="T189" s="63"/>
-      <c r="U189" s="56"/>
+      <c r="H189" s="39"/>
+      <c r="I189" s="40"/>
+      <c r="J189" s="40"/>
+      <c r="K189" s="40"/>
+      <c r="L189" s="40"/>
+      <c r="M189" s="40"/>
+      <c r="N189" s="40"/>
+      <c r="O189" s="40"/>
+      <c r="P189" s="40"/>
+      <c r="Q189" s="40"/>
+      <c r="R189" s="40"/>
+      <c r="S189" s="40"/>
+      <c r="T189" s="40"/>
+      <c r="U189" s="41"/>
     </row>
     <row r="190" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A190" s="30"/>
@@ -15252,20 +15216,20 @@
       <c r="E190" s="31"/>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
-      <c r="H190" s="55"/>
-      <c r="I190" s="63"/>
-      <c r="J190" s="63"/>
-      <c r="K190" s="63"/>
-      <c r="L190" s="63"/>
-      <c r="M190" s="63"/>
-      <c r="N190" s="63"/>
-      <c r="O190" s="63"/>
-      <c r="P190" s="63"/>
-      <c r="Q190" s="63"/>
-      <c r="R190" s="63"/>
-      <c r="S190" s="63"/>
-      <c r="T190" s="63"/>
-      <c r="U190" s="56"/>
+      <c r="H190" s="39"/>
+      <c r="I190" s="40"/>
+      <c r="J190" s="40"/>
+      <c r="K190" s="40"/>
+      <c r="L190" s="40"/>
+      <c r="M190" s="40"/>
+      <c r="N190" s="40"/>
+      <c r="O190" s="40"/>
+      <c r="P190" s="40"/>
+      <c r="Q190" s="40"/>
+      <c r="R190" s="40"/>
+      <c r="S190" s="40"/>
+      <c r="T190" s="40"/>
+      <c r="U190" s="41"/>
     </row>
     <row r="191" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" s="30"/>
@@ -15281,20 +15245,20 @@
       <c r="E191" s="31"/>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
-      <c r="H191" s="55"/>
-      <c r="I191" s="63"/>
-      <c r="J191" s="63"/>
-      <c r="K191" s="63"/>
-      <c r="L191" s="63"/>
-      <c r="M191" s="63"/>
-      <c r="N191" s="63"/>
-      <c r="O191" s="63"/>
-      <c r="P191" s="63"/>
-      <c r="Q191" s="63"/>
-      <c r="R191" s="63"/>
-      <c r="S191" s="63"/>
-      <c r="T191" s="63"/>
-      <c r="U191" s="56"/>
+      <c r="H191" s="39"/>
+      <c r="I191" s="40"/>
+      <c r="J191" s="40"/>
+      <c r="K191" s="40"/>
+      <c r="L191" s="40"/>
+      <c r="M191" s="40"/>
+      <c r="N191" s="40"/>
+      <c r="O191" s="40"/>
+      <c r="P191" s="40"/>
+      <c r="Q191" s="40"/>
+      <c r="R191" s="40"/>
+      <c r="S191" s="40"/>
+      <c r="T191" s="40"/>
+      <c r="U191" s="41"/>
     </row>
     <row r="192" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="30"/>
@@ -15310,20 +15274,20 @@
       <c r="E192" s="31"/>
       <c r="F192" s="31"/>
       <c r="G192" s="31"/>
-      <c r="H192" s="55"/>
-      <c r="I192" s="63"/>
-      <c r="J192" s="63"/>
-      <c r="K192" s="63"/>
-      <c r="L192" s="63"/>
-      <c r="M192" s="63"/>
-      <c r="N192" s="63"/>
-      <c r="O192" s="63"/>
-      <c r="P192" s="63"/>
-      <c r="Q192" s="63"/>
-      <c r="R192" s="63"/>
-      <c r="S192" s="63"/>
-      <c r="T192" s="63"/>
-      <c r="U192" s="56"/>
+      <c r="H192" s="39"/>
+      <c r="I192" s="40"/>
+      <c r="J192" s="40"/>
+      <c r="K192" s="40"/>
+      <c r="L192" s="40"/>
+      <c r="M192" s="40"/>
+      <c r="N192" s="40"/>
+      <c r="O192" s="40"/>
+      <c r="P192" s="40"/>
+      <c r="Q192" s="40"/>
+      <c r="R192" s="40"/>
+      <c r="S192" s="40"/>
+      <c r="T192" s="40"/>
+      <c r="U192" s="41"/>
     </row>
     <row r="193" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="30"/>
@@ -15339,22 +15303,22 @@
       <c r="E193" s="31"/>
       <c r="F193" s="31"/>
       <c r="G193" s="31"/>
-      <c r="H193" s="55" t="s">
+      <c r="H193" s="39" t="s">
         <v>770</v>
       </c>
-      <c r="I193" s="63"/>
-      <c r="J193" s="63"/>
-      <c r="K193" s="63"/>
-      <c r="L193" s="63"/>
-      <c r="M193" s="63"/>
-      <c r="N193" s="63"/>
-      <c r="O193" s="63"/>
-      <c r="P193" s="63"/>
-      <c r="Q193" s="63"/>
-      <c r="R193" s="63"/>
-      <c r="S193" s="63"/>
-      <c r="T193" s="63"/>
-      <c r="U193" s="56"/>
+      <c r="I193" s="40"/>
+      <c r="J193" s="40"/>
+      <c r="K193" s="40"/>
+      <c r="L193" s="40"/>
+      <c r="M193" s="40"/>
+      <c r="N193" s="40"/>
+      <c r="O193" s="40"/>
+      <c r="P193" s="40"/>
+      <c r="Q193" s="40"/>
+      <c r="R193" s="40"/>
+      <c r="S193" s="40"/>
+      <c r="T193" s="40"/>
+      <c r="U193" s="41"/>
     </row>
     <row r="194" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="30"/>
@@ -15370,20 +15334,20 @@
       <c r="E194" s="31"/>
       <c r="F194" s="31"/>
       <c r="G194" s="31"/>
-      <c r="H194" s="55"/>
-      <c r="I194" s="63"/>
-      <c r="J194" s="63"/>
-      <c r="K194" s="63"/>
-      <c r="L194" s="63"/>
-      <c r="M194" s="63"/>
-      <c r="N194" s="63"/>
-      <c r="O194" s="63"/>
-      <c r="P194" s="63"/>
-      <c r="Q194" s="63"/>
-      <c r="R194" s="63"/>
-      <c r="S194" s="63"/>
-      <c r="T194" s="63"/>
-      <c r="U194" s="56"/>
+      <c r="H194" s="39"/>
+      <c r="I194" s="40"/>
+      <c r="J194" s="40"/>
+      <c r="K194" s="40"/>
+      <c r="L194" s="40"/>
+      <c r="M194" s="40"/>
+      <c r="N194" s="40"/>
+      <c r="O194" s="40"/>
+      <c r="P194" s="40"/>
+      <c r="Q194" s="40"/>
+      <c r="R194" s="40"/>
+      <c r="S194" s="40"/>
+      <c r="T194" s="40"/>
+      <c r="U194" s="41"/>
     </row>
     <row r="195" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A195" s="30"/>
@@ -15397,20 +15361,20 @@
       <c r="E195" s="31"/>
       <c r="F195" s="31"/>
       <c r="G195" s="31"/>
-      <c r="H195" s="55"/>
-      <c r="I195" s="63"/>
-      <c r="J195" s="63"/>
-      <c r="K195" s="63"/>
-      <c r="L195" s="63"/>
-      <c r="M195" s="63"/>
-      <c r="N195" s="63"/>
-      <c r="O195" s="63"/>
-      <c r="P195" s="63"/>
-      <c r="Q195" s="63"/>
-      <c r="R195" s="63"/>
-      <c r="S195" s="63"/>
-      <c r="T195" s="63"/>
-      <c r="U195" s="56"/>
+      <c r="H195" s="39"/>
+      <c r="I195" s="40"/>
+      <c r="J195" s="40"/>
+      <c r="K195" s="40"/>
+      <c r="L195" s="40"/>
+      <c r="M195" s="40"/>
+      <c r="N195" s="40"/>
+      <c r="O195" s="40"/>
+      <c r="P195" s="40"/>
+      <c r="Q195" s="40"/>
+      <c r="R195" s="40"/>
+      <c r="S195" s="40"/>
+      <c r="T195" s="40"/>
+      <c r="U195" s="41"/>
     </row>
     <row r="196" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="30"/>
@@ -15424,20 +15388,20 @@
       <c r="E196" s="31"/>
       <c r="F196" s="31"/>
       <c r="G196" s="31"/>
-      <c r="H196" s="55"/>
-      <c r="I196" s="63"/>
-      <c r="J196" s="63"/>
-      <c r="K196" s="63"/>
-      <c r="L196" s="63"/>
-      <c r="M196" s="63"/>
-      <c r="N196" s="63"/>
-      <c r="O196" s="63"/>
-      <c r="P196" s="63"/>
-      <c r="Q196" s="63"/>
-      <c r="R196" s="63"/>
-      <c r="S196" s="63"/>
-      <c r="T196" s="63"/>
-      <c r="U196" s="56"/>
+      <c r="H196" s="39"/>
+      <c r="I196" s="40"/>
+      <c r="J196" s="40"/>
+      <c r="K196" s="40"/>
+      <c r="L196" s="40"/>
+      <c r="M196" s="40"/>
+      <c r="N196" s="40"/>
+      <c r="O196" s="40"/>
+      <c r="P196" s="40"/>
+      <c r="Q196" s="40"/>
+      <c r="R196" s="40"/>
+      <c r="S196" s="40"/>
+      <c r="T196" s="40"/>
+      <c r="U196" s="41"/>
     </row>
     <row r="197" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="30"/>
@@ -15451,68 +15415,25 @@
       <c r="E197" s="31"/>
       <c r="F197" s="31"/>
       <c r="G197" s="31"/>
-      <c r="H197" s="55"/>
-      <c r="I197" s="63"/>
-      <c r="J197" s="63"/>
-      <c r="K197" s="63"/>
-      <c r="L197" s="63"/>
-      <c r="M197" s="63"/>
-      <c r="N197" s="63"/>
-      <c r="O197" s="63"/>
-      <c r="P197" s="63"/>
-      <c r="Q197" s="63"/>
-      <c r="R197" s="63"/>
-      <c r="S197" s="63"/>
-      <c r="T197" s="63"/>
-      <c r="U197" s="56"/>
+      <c r="H197" s="39"/>
+      <c r="I197" s="40"/>
+      <c r="J197" s="40"/>
+      <c r="K197" s="40"/>
+      <c r="L197" s="40"/>
+      <c r="M197" s="40"/>
+      <c r="N197" s="40"/>
+      <c r="O197" s="40"/>
+      <c r="P197" s="40"/>
+      <c r="Q197" s="40"/>
+      <c r="R197" s="40"/>
+      <c r="S197" s="40"/>
+      <c r="T197" s="40"/>
+      <c r="U197" s="41"/>
     </row>
   </sheetData>
   <sheetProtection password="C644" sheet="1" formatColumns="0" autoFilter="0"/>
   <autoFilter ref="A7:U7"/>
   <mergeCells count="59">
-    <mergeCell ref="H195:U195"/>
-    <mergeCell ref="H196:U196"/>
-    <mergeCell ref="H197:U197"/>
-    <mergeCell ref="H190:U190"/>
-    <mergeCell ref="H191:U191"/>
-    <mergeCell ref="H192:U192"/>
-    <mergeCell ref="H193:U193"/>
-    <mergeCell ref="H194:U194"/>
-    <mergeCell ref="H185:U185"/>
-    <mergeCell ref="H186:U186"/>
-    <mergeCell ref="H187:U187"/>
-    <mergeCell ref="H188:U188"/>
-    <mergeCell ref="H189:U189"/>
-    <mergeCell ref="H180:U180"/>
-    <mergeCell ref="H181:U181"/>
-    <mergeCell ref="H182:U182"/>
-    <mergeCell ref="H183:U183"/>
-    <mergeCell ref="H184:U184"/>
-    <mergeCell ref="C148:I148"/>
-    <mergeCell ref="C149:I149"/>
-    <mergeCell ref="C153:I153"/>
-    <mergeCell ref="C169:I169"/>
-    <mergeCell ref="A179:U179"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="C67:I67"/>
-    <mergeCell ref="C97:I97"/>
-    <mergeCell ref="C128:I128"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:R7"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="A3:U3"/>
     <mergeCell ref="A4:U4"/>
@@ -15529,6 +15450,49 @@
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="C97:I97"/>
+    <mergeCell ref="C128:I128"/>
+    <mergeCell ref="C148:I148"/>
+    <mergeCell ref="C149:I149"/>
+    <mergeCell ref="C153:I153"/>
+    <mergeCell ref="C169:I169"/>
+    <mergeCell ref="A179:U179"/>
+    <mergeCell ref="H180:U180"/>
+    <mergeCell ref="H181:U181"/>
+    <mergeCell ref="H182:U182"/>
+    <mergeCell ref="H183:U183"/>
+    <mergeCell ref="H184:U184"/>
+    <mergeCell ref="H185:U185"/>
+    <mergeCell ref="H186:U186"/>
+    <mergeCell ref="H187:U187"/>
+    <mergeCell ref="H188:U188"/>
+    <mergeCell ref="H189:U189"/>
+    <mergeCell ref="H195:U195"/>
+    <mergeCell ref="H196:U196"/>
+    <mergeCell ref="H197:U197"/>
+    <mergeCell ref="H190:U190"/>
+    <mergeCell ref="H191:U191"/>
+    <mergeCell ref="H192:U192"/>
+    <mergeCell ref="H193:U193"/>
+    <mergeCell ref="H194:U194"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15536,13 +15500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:AI197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15550,10 +15511,10 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
@@ -15626,217 +15587,217 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
     </row>
     <row r="5" spans="1:35" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="52" t="s">
+      <c r="H5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="I5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="49" t="s">
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="56" t="s">
         <v>780</v>
       </c>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="49">
+      <c r="Q5" s="57"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="56">
         <v>9701212867</v>
       </c>
-      <c r="T5" s="50"/>
-      <c r="U5" s="51"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="58"/>
     </row>
     <row r="6" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="55" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="52" t="s">
+      <c r="K6" s="41"/>
+      <c r="L6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="56"/>
-      <c r="O6" s="52" t="s">
+      <c r="N6" s="41"/>
+      <c r="O6" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="55" t="s">
+      <c r="P6" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="52" t="s">
+      <c r="Q6" s="41"/>
+      <c r="R6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="55" t="s">
+      <c r="S6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="56"/>
-      <c r="U6" s="52" t="s">
+      <c r="T6" s="41"/>
+      <c r="U6" s="48" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="54"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="54"/>
+      <c r="O7" s="49"/>
       <c r="P7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="54"/>
+      <c r="R7" s="49"/>
       <c r="S7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="54"/>
+      <c r="U7" s="49"/>
     </row>
     <row r="8" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -15890,15 +15851,15 @@
       <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
       <c r="M9" s="6">
         <f t="shared" si="0"/>
         <v>21909487.239999998</v>
@@ -15949,15 +15910,15 @@
       <c r="B10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
       <c r="M10" s="6">
         <f t="shared" si="0"/>
         <v>21909487.239999998</v>
@@ -16008,15 +15969,15 @@
       <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
       <c r="M11" s="6">
         <f t="shared" si="0"/>
         <v>21909487.239999998</v>
@@ -16067,15 +16028,15 @@
       <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
       <c r="M12" s="6">
         <f>SUM(M13,M66,M148,M169)</f>
         <v>21909487.239999998</v>
@@ -16126,15 +16087,15 @@
       <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
       <c r="M13" s="6">
         <f>SUM(M14,M37,M45)</f>
         <v>3561291.31</v>
@@ -16185,15 +16146,15 @@
       <c r="B14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
       <c r="M14" s="6">
         <f>SUM(M15,M19,M21,M29)</f>
         <v>2618573.91</v>
@@ -16237,7 +16198,7 @@
         <v>17898487</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>51</v>
       </c>
@@ -16611,7 +16572,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>82</v>
       </c>
@@ -16941,10 +16902,10 @@
       <c r="C25" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="62" t="s">
         <v>781</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="60" t="s">
         <v>784</v>
       </c>
       <c r="F25" s="18" t="s">
@@ -16997,8 +16958,8 @@
       <c r="C26" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="67"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="18" t="s">
         <v>79</v>
       </c>
@@ -17323,7 +17284,10 @@
       <c r="G31" s="19">
         <v>1E-3</v>
       </c>
-      <c r="H31" s="20"/>
+      <c r="H31" s="20">
+        <f t="shared" ref="H31:H32" si="10">$I$29*G31*0.065*1000</f>
+        <v>242.48250000000002</v>
+      </c>
       <c r="I31" s="20">
         <v>242.5</v>
       </c>
@@ -17375,7 +17339,10 @@
       <c r="G32" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H32" s="20"/>
+      <c r="H32" s="20">
+        <f t="shared" si="10"/>
+        <v>266730.75</v>
+      </c>
       <c r="I32" s="20">
         <v>4103.55</v>
       </c>
@@ -17419,10 +17386,10 @@
       <c r="C33" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="62" t="s">
         <v>781</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="60" t="s">
         <v>784</v>
       </c>
       <c r="F33" s="18" t="s">
@@ -17431,7 +17398,10 @@
       <c r="G33" s="19">
         <v>0.32</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="20">
+        <f>$I$29*G33*0.065*1000</f>
+        <v>77594.400000000009</v>
+      </c>
       <c r="I33" s="20">
         <v>77600</v>
       </c>
@@ -17475,15 +17445,18 @@
       <c r="C34" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="67"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="18" t="s">
         <v>79</v>
       </c>
       <c r="G34" s="19">
         <v>1E-3</v>
       </c>
-      <c r="H34" s="20"/>
+      <c r="H34" s="20">
+        <f>$I$29*G34*0.065*1000</f>
+        <v>242.48250000000002</v>
+      </c>
       <c r="I34" s="20">
         <v>242.5</v>
       </c>
@@ -17630,15 +17603,15 @@
       <c r="B37" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
       <c r="M37" s="6">
         <f>SUM(M38,M41,M43)</f>
         <v>122933.90000000001</v>
@@ -17829,7 +17802,7 @@
         <v>175.25</v>
       </c>
       <c r="Y39" s="9">
-        <f t="shared" ref="Y39:Y44" si="10">ROUND(S39 / 1.2, 2)</f>
+        <f t="shared" ref="Y39:Y44" si="11">ROUND(S39 / 1.2, 2)</f>
         <v>6598.17</v>
       </c>
       <c r="AD39" s="4" t="s">
@@ -17881,7 +17854,7 @@
         <v>117.83</v>
       </c>
       <c r="Y40" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>44364.25</v>
       </c>
       <c r="AD40" s="4" t="s">
@@ -17975,7 +17948,7 @@
         <v>191.38</v>
       </c>
       <c r="Y41" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>36005.51</v>
       </c>
       <c r="Z41" s="9">
@@ -18043,7 +18016,7 @@
         <v>140.5</v>
       </c>
       <c r="Y42" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>36005.089999999997</v>
       </c>
       <c r="AD42" s="4" t="s">
@@ -18137,7 +18110,7 @@
         <v>3965.06</v>
       </c>
       <c r="Y43" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15476.37</v>
       </c>
       <c r="Z43" s="9">
@@ -18203,7 +18176,7 @@
         <v>2125</v>
       </c>
       <c r="Y44" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15476.38</v>
       </c>
       <c r="AD44" s="4" t="s">
@@ -18223,15 +18196,15 @@
       <c r="B45" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="62"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
       <c r="M45" s="6">
         <f>SUM(M46,M51,M55,M60,M63)</f>
         <v>819783.5</v>
@@ -18275,7 +18248,7 @@
         <v>17909368</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>194</v>
       </c>
@@ -18426,7 +18399,7 @@
         <v>10.28</v>
       </c>
       <c r="Y47" s="9">
-        <f t="shared" ref="Y47:Y65" si="11">ROUND(S47 / 1.2, 2)</f>
+        <f t="shared" ref="Y47:Y65" si="12">ROUND(S47 / 1.2, 2)</f>
         <v>20788.38</v>
       </c>
       <c r="AD47" s="4" t="s">
@@ -18439,7 +18412,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>206</v>
       </c>
@@ -18480,7 +18453,7 @@
         <v>994.17</v>
       </c>
       <c r="Y48" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>358592.93</v>
       </c>
       <c r="AD48" s="4" t="s">
@@ -18532,7 +18505,7 @@
         <v>33.56</v>
       </c>
       <c r="Y49" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2828.13</v>
       </c>
       <c r="AD49" s="4" t="s">
@@ -18584,7 +18557,7 @@
         <v>74</v>
       </c>
       <c r="Y50" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3741.81</v>
       </c>
       <c r="AD50" s="4" t="s">
@@ -18678,7 +18651,7 @@
         <v>339.9</v>
       </c>
       <c r="Y51" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9631.7800000000007</v>
       </c>
       <c r="Z51" s="9">
@@ -18746,7 +18719,7 @@
         <v>360.68</v>
       </c>
       <c r="Y52" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5990.81</v>
       </c>
       <c r="AD52" s="4" t="s">
@@ -18800,7 +18773,7 @@
         <v>75.81</v>
       </c>
       <c r="Y53" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3223.75</v>
       </c>
       <c r="AD53" s="4" t="s">
@@ -18854,7 +18827,7 @@
         <v>83.33</v>
       </c>
       <c r="Y54" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>417</v>
       </c>
       <c r="AD54" s="4" t="s">
@@ -18948,7 +18921,7 @@
         <v>549.46</v>
       </c>
       <c r="Y55" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>44765.09</v>
       </c>
       <c r="Z55" s="9">
@@ -18975,7 +18948,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>249</v>
       </c>
@@ -19016,7 +18989,7 @@
         <v>107.23</v>
       </c>
       <c r="Y56" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>42678.01</v>
       </c>
       <c r="AD56" s="4" t="s">
@@ -19073,7 +19046,7 @@
         <v>10.28</v>
       </c>
       <c r="Y57" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1555.74</v>
       </c>
       <c r="AD57" s="4" t="s">
@@ -19125,7 +19098,7 @@
         <v>33.56</v>
       </c>
       <c r="Y58" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>290.35000000000002</v>
       </c>
       <c r="AD58" s="4" t="s">
@@ -19177,7 +19150,7 @@
         <v>74</v>
       </c>
       <c r="Y59" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>240.13</v>
       </c>
       <c r="AD59" s="4" t="s">
@@ -19271,7 +19244,7 @@
         <v>288.12</v>
       </c>
       <c r="Y60" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>242804.64</v>
       </c>
       <c r="Z60" s="9">
@@ -19298,7 +19271,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>271</v>
       </c>
@@ -19339,7 +19312,7 @@
         <v>143.94999999999999</v>
       </c>
       <c r="Y61" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>230780.64</v>
       </c>
       <c r="AD61" s="4" t="s">
@@ -19393,7 +19366,7 @@
         <v>83.33</v>
       </c>
       <c r="Y62" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12024</v>
       </c>
       <c r="AD62" s="4" t="s">
@@ -19487,7 +19460,7 @@
         <v>2280.67</v>
       </c>
       <c r="Y63" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6074136.7699999996</v>
       </c>
       <c r="Z63" s="9">
@@ -19555,7 +19528,7 @@
         <v>3788.33</v>
       </c>
       <c r="Y64" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1553216.67</v>
       </c>
       <c r="AD64" s="4" t="s">
@@ -19609,7 +19582,7 @@
         <v>1250</v>
       </c>
       <c r="Y65" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4520927.5</v>
       </c>
       <c r="AD65" s="4" t="s">
@@ -19629,15 +19602,15 @@
       <c r="B66" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="62"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="44"/>
       <c r="M66" s="6">
         <f>SUM(M67,M97,M128)</f>
         <v>4332566.72</v>
@@ -19688,15 +19661,15 @@
       <c r="B67" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="62"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="44"/>
       <c r="M67" s="6">
         <f>SUM(M68,M71,M75,M79,M82,M85,M89,M92)</f>
         <v>2963619.5900000003</v>
@@ -19887,7 +19860,7 @@
         <v>6.33</v>
       </c>
       <c r="Y69" s="9">
-        <f t="shared" ref="Y69:Y96" si="12">ROUND(S69 / 1.2, 2)</f>
+        <f t="shared" ref="Y69:Y96" si="13">ROUND(S69 / 1.2, 2)</f>
         <v>1066.3900000000001</v>
       </c>
       <c r="AD69" s="4" t="s">
@@ -19939,7 +19912,7 @@
         <v>5.83</v>
       </c>
       <c r="Y70" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10818.5</v>
       </c>
       <c r="AD70" s="4" t="s">
@@ -19952,11 +19925,11 @@
         <v>317</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="10" t="s">
         <v>319</v>
       </c>
       <c r="C71" s="11" t="s">
@@ -20035,7 +20008,7 @@
         <v>1055.21</v>
       </c>
       <c r="Y71" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>736510.94</v>
       </c>
       <c r="Z71" s="9">
@@ -20066,7 +20039,7 @@
       <c r="A72" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B72" s="39"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="24" t="s">
         <v>325</v>
       </c>
@@ -20101,7 +20074,7 @@
         <v>83.33</v>
       </c>
       <c r="Y72" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>68385.42</v>
       </c>
       <c r="AD72" s="4" t="s">
@@ -20118,7 +20091,7 @@
       <c r="A73" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B73" s="39"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="24" t="s">
         <v>330</v>
       </c>
@@ -20153,7 +20126,7 @@
         <v>13.13</v>
       </c>
       <c r="Y73" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45265.68</v>
       </c>
       <c r="AD73" s="4" t="s">
@@ -20166,11 +20139,11 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B74" s="39"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="17" t="s">
         <v>309</v>
       </c>
@@ -20212,7 +20185,7 @@
         <v>6.33</v>
       </c>
       <c r="Y74" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>622854.38</v>
       </c>
       <c r="AD74" s="4" t="s">
@@ -20229,7 +20202,7 @@
       <c r="A75" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="10" t="s">
         <v>319</v>
       </c>
       <c r="C75" s="11" t="s">
@@ -20308,7 +20281,7 @@
         <v>1061.3499999999999</v>
       </c>
       <c r="Y75" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>826448.35</v>
       </c>
       <c r="Z75" s="9">
@@ -20335,11 +20308,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B76" s="41"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="17" t="s">
         <v>309</v>
       </c>
@@ -20381,7 +20354,7 @@
         <v>6.33</v>
       </c>
       <c r="Y76" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>737216.7</v>
       </c>
       <c r="AD76" s="4" t="s">
@@ -20398,7 +20371,7 @@
       <c r="A77" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B77" s="41"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="24" t="s">
         <v>217</v>
       </c>
@@ -20433,7 +20406,7 @@
         <v>74</v>
       </c>
       <c r="Y77" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39795.72</v>
       </c>
       <c r="AD77" s="4" t="s">
@@ -20450,7 +20423,7 @@
       <c r="A78" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B78" s="41"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="24" t="s">
         <v>330</v>
       </c>
@@ -20485,7 +20458,7 @@
         <v>13.13</v>
       </c>
       <c r="Y78" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>49439.91</v>
       </c>
       <c r="AD78" s="4" t="s">
@@ -20502,7 +20475,7 @@
       <c r="A79" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="10" t="s">
         <v>350</v>
       </c>
       <c r="C79" s="11" t="s">
@@ -20581,7 +20554,7 @@
         <v>390.8</v>
       </c>
       <c r="Y79" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24479.77</v>
       </c>
       <c r="Z79" s="9">
@@ -20612,7 +20585,7 @@
       <c r="A80" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B80" s="40"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="17" t="s">
         <v>356</v>
       </c>
@@ -20647,7 +20620,7 @@
         <v>10.48</v>
       </c>
       <c r="Y80" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15414.9</v>
       </c>
       <c r="AD80" s="4" t="s">
@@ -20664,7 +20637,7 @@
       <c r="A81" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B81" s="40"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="24" t="s">
         <v>217</v>
       </c>
@@ -20699,7 +20672,7 @@
         <v>74</v>
       </c>
       <c r="Y81" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9067.59</v>
       </c>
       <c r="AD81" s="4" t="s">
@@ -20795,7 +20768,7 @@
         <v>390.8</v>
       </c>
       <c r="Y82" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>24479.77</v>
       </c>
       <c r="Z82" s="9">
@@ -20861,7 +20834,7 @@
         <v>74</v>
       </c>
       <c r="Y83" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9067.59</v>
       </c>
       <c r="AD83" s="4" t="s">
@@ -20913,7 +20886,7 @@
         <v>10.48</v>
       </c>
       <c r="Y84" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15414.9</v>
       </c>
       <c r="AD84" s="4" t="s">
@@ -20930,7 +20903,7 @@
       <c r="A85" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="10" t="s">
         <v>372</v>
       </c>
       <c r="C85" s="11" t="s">
@@ -21009,7 +20982,7 @@
         <v>306.02999999999997</v>
       </c>
       <c r="Y85" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>232511.68</v>
       </c>
       <c r="Z85" s="9">
@@ -21040,7 +21013,7 @@
       <c r="A86" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B86" s="42"/>
+      <c r="B86" s="10"/>
       <c r="C86" s="17" t="s">
         <v>356</v>
       </c>
@@ -21077,7 +21050,7 @@
         <v>10.48</v>
       </c>
       <c r="Y86" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>137718.93</v>
       </c>
       <c r="AD86" s="4" t="s">
@@ -21094,7 +21067,7 @@
       <c r="A87" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="B87" s="42"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="24" t="s">
         <v>382</v>
       </c>
@@ -21129,7 +21102,7 @@
         <v>60.92</v>
       </c>
       <c r="Y87" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13761.08</v>
       </c>
       <c r="AD87" s="4" t="s">
@@ -21146,7 +21119,7 @@
       <c r="A88" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="B88" s="42"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="24" t="s">
         <v>217</v>
       </c>
@@ -21181,7 +21154,7 @@
         <v>74</v>
       </c>
       <c r="Y88" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>81011.13</v>
       </c>
       <c r="AD88" s="4" t="s">
@@ -21277,7 +21250,7 @@
         <v>304.13</v>
       </c>
       <c r="Y89" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>218705.73</v>
       </c>
       <c r="Z89" s="9">
@@ -21343,7 +21316,7 @@
         <v>74</v>
       </c>
       <c r="Y90" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>81011.13</v>
       </c>
       <c r="AD90" s="4" t="s">
@@ -21395,7 +21368,7 @@
         <v>10.48</v>
       </c>
       <c r="Y91" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>137718.93</v>
       </c>
       <c r="AD91" s="4" t="s">
@@ -21489,7 +21462,7 @@
         <v>1356.44</v>
       </c>
       <c r="Y92" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>394660.47</v>
       </c>
       <c r="Z92" s="9">
@@ -21562,7 +21535,7 @@
         <v>7.17</v>
       </c>
       <c r="Y93" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>314754.27</v>
       </c>
       <c r="AD93" s="4" t="s">
@@ -21575,7 +21548,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="94" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>407</v>
       </c>
@@ -21618,7 +21591,7 @@
         <v>55.13</v>
       </c>
       <c r="Y94" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51214.43</v>
       </c>
       <c r="AD94" s="4" t="s">
@@ -21670,7 +21643,7 @@
         <v>13.13</v>
       </c>
       <c r="Y95" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11092.42</v>
       </c>
       <c r="AD95" s="4" t="s">
@@ -21722,7 +21695,7 @@
         <v>83.33</v>
       </c>
       <c r="Y96" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17595.830000000002</v>
       </c>
       <c r="AD96" s="4" t="s">
@@ -21742,15 +21715,15 @@
       <c r="B97" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="60" t="s">
+      <c r="C97" s="42" t="s">
         <v>420</v>
       </c>
-      <c r="D97" s="61"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="62"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="44"/>
       <c r="M97" s="6">
         <f>SUM(M98,M107,M110,M113,M116,M119,M122,M125)</f>
         <v>1187256.6599999997</v>
@@ -21926,22 +21899,22 @@
         <v>97.71</v>
       </c>
       <c r="M99" s="22">
-        <f t="shared" ref="M99:M106" si="13">ROUND(ROUND(J99, 2)*I99, 2)</f>
+        <f t="shared" ref="M99:M106" si="14">ROUND(ROUND(J99, 2)*I99, 2)</f>
         <v>8989.32</v>
       </c>
       <c r="P99" s="23">
         <v>97.71</v>
       </c>
       <c r="S99" s="22">
-        <f t="shared" ref="S99:S106" si="14">ROUND(ROUND(P99, 2)*I99, 2)</f>
+        <f t="shared" ref="S99:S106" si="15">ROUND(ROUND(P99, 2)*I99, 2)</f>
         <v>8989.32</v>
       </c>
       <c r="V99" s="9">
-        <f t="shared" ref="V99:V106" si="15">ROUND(ROUND(P99, 2)/1.2, 2)</f>
+        <f t="shared" ref="V99:V106" si="16">ROUND(ROUND(P99, 2)/1.2, 2)</f>
         <v>81.430000000000007</v>
       </c>
       <c r="Y99" s="9">
-        <f t="shared" ref="Y99:Y127" si="16">ROUND(S99 / 1.2, 2)</f>
+        <f t="shared" ref="Y99:Y127" si="17">ROUND(S99 / 1.2, 2)</f>
         <v>7491.1</v>
       </c>
       <c r="AD99" s="4" t="s">
@@ -21978,22 +21951,22 @@
         <v>12.33</v>
       </c>
       <c r="M100" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>37285.919999999998</v>
       </c>
       <c r="P100" s="23">
         <v>12.33</v>
       </c>
       <c r="S100" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>37285.919999999998</v>
       </c>
       <c r="V100" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10.28</v>
       </c>
       <c r="Y100" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31071.599999999999</v>
       </c>
       <c r="AD100" s="4" t="s">
@@ -22030,22 +22003,22 @@
         <v>1094.0999999999999</v>
       </c>
       <c r="M101" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>66612.09</v>
       </c>
       <c r="P101" s="23">
         <v>1094.0999999999999</v>
       </c>
       <c r="S101" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>66612.09</v>
       </c>
       <c r="V101" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>911.75</v>
       </c>
       <c r="Y101" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>55510.080000000002</v>
       </c>
       <c r="AD101" s="4" t="s">
@@ -22082,22 +22055,22 @@
         <v>945</v>
       </c>
       <c r="M102" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>339341.94</v>
       </c>
       <c r="P102" s="23">
         <v>945</v>
       </c>
       <c r="S102" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>339341.94</v>
       </c>
       <c r="V102" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>787.5</v>
       </c>
       <c r="Y102" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>282784.95</v>
       </c>
       <c r="AD102" s="4" t="s">
@@ -22136,22 +22109,22 @@
         <v>1019.55</v>
       </c>
       <c r="M103" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30000.26</v>
       </c>
       <c r="P103" s="23">
         <v>1019.55</v>
       </c>
       <c r="S103" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30000.26</v>
       </c>
       <c r="V103" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>849.63</v>
       </c>
       <c r="Y103" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>25000.22</v>
       </c>
       <c r="AD103" s="4" t="s">
@@ -22190,22 +22163,22 @@
         <v>1374.45</v>
       </c>
       <c r="M104" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>524732.02</v>
       </c>
       <c r="P104" s="23">
         <v>1374.45</v>
       </c>
       <c r="S104" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>524732.02</v>
       </c>
       <c r="V104" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1145.3800000000001</v>
       </c>
       <c r="Y104" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>437276.68</v>
       </c>
       <c r="AD104" s="4" t="s">
@@ -22242,22 +22215,22 @@
         <v>40.270000000000003</v>
       </c>
       <c r="M105" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7820.43</v>
       </c>
       <c r="P105" s="23">
         <v>40.270000000000003</v>
       </c>
       <c r="S105" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7820.43</v>
       </c>
       <c r="V105" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.56</v>
       </c>
       <c r="Y105" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6517.03</v>
       </c>
       <c r="AD105" s="4" t="s">
@@ -22270,7 +22243,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>461</v>
       </c>
@@ -22296,22 +22269,22 @@
         <v>68.400000000000006</v>
       </c>
       <c r="M106" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7969.97</v>
       </c>
       <c r="P106" s="23">
         <v>68.400000000000006</v>
       </c>
       <c r="S106" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7969.97</v>
       </c>
       <c r="V106" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>57</v>
       </c>
       <c r="Y106" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6641.64</v>
       </c>
       <c r="AD106" s="4" t="s">
@@ -22405,7 +22378,7 @@
         <v>297.77</v>
       </c>
       <c r="Y107" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>361616.48</v>
       </c>
       <c r="Z107" s="9">
@@ -22471,7 +22444,7 @@
         <v>74</v>
       </c>
       <c r="Y108" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>59231.82</v>
       </c>
       <c r="AD108" s="4" t="s">
@@ -22484,7 +22457,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>475</v>
       </c>
@@ -22525,7 +22498,7 @@
         <v>188.89</v>
       </c>
       <c r="Y109" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>302389.12</v>
       </c>
       <c r="AD109" s="4" t="s">
@@ -22619,7 +22592,7 @@
         <v>308.07</v>
       </c>
       <c r="Y110" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>32483.54</v>
       </c>
       <c r="Z110" s="9">
@@ -22646,7 +22619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>482</v>
       </c>
@@ -22687,7 +22660,7 @@
         <v>223.23</v>
       </c>
       <c r="Y111" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>27866.22</v>
       </c>
       <c r="AD111" s="4" t="s">
@@ -22739,7 +22712,7 @@
         <v>74</v>
       </c>
       <c r="Y112" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4618.71</v>
       </c>
       <c r="AD112" s="4" t="s">
@@ -22833,7 +22806,7 @@
         <v>297.77</v>
       </c>
       <c r="Y113" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>70999.13</v>
       </c>
       <c r="Z113" s="9">
@@ -22899,7 +22872,7 @@
         <v>74</v>
       </c>
       <c r="Y114" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11629.47</v>
       </c>
       <c r="AD114" s="4" t="s">
@@ -22912,7 +22885,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>495</v>
       </c>
@@ -22953,7 +22926,7 @@
         <v>188.89</v>
       </c>
       <c r="Y115" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>59370.54</v>
       </c>
       <c r="AD115" s="4" t="s">
@@ -23047,7 +23020,7 @@
         <v>308.07</v>
       </c>
       <c r="Y116" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7533.43</v>
       </c>
       <c r="Z116" s="9">
@@ -23074,7 +23047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>502</v>
       </c>
@@ -23115,7 +23088,7 @@
         <v>223.23</v>
       </c>
       <c r="Y117" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6462.61</v>
       </c>
       <c r="AD117" s="4" t="s">
@@ -23167,7 +23140,7 @@
         <v>74</v>
       </c>
       <c r="Y118" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1071.1500000000001</v>
       </c>
       <c r="AD118" s="4" t="s">
@@ -23261,7 +23234,7 @@
         <v>308.07</v>
       </c>
       <c r="Y119" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1631.59</v>
       </c>
       <c r="Z119" s="9">
@@ -23327,7 +23300,7 @@
         <v>74</v>
       </c>
       <c r="Y120" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>231.99</v>
       </c>
       <c r="AD120" s="4" t="s">
@@ -23340,7 +23313,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:35" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>513</v>
       </c>
@@ -23381,7 +23354,7 @@
         <v>223.23</v>
       </c>
       <c r="Y121" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1399.68</v>
       </c>
       <c r="AD121" s="4" t="s">
@@ -23475,7 +23448,7 @@
         <v>308.07</v>
       </c>
       <c r="Y122" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5730.09</v>
       </c>
       <c r="Z122" s="9">
@@ -23543,7 +23516,7 @@
         <v>223.23</v>
       </c>
       <c r="Y123" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4915.6000000000004</v>
       </c>
       <c r="AD123" s="4" t="s">
@@ -23595,7 +23568,7 @@
         <v>74</v>
       </c>
       <c r="Y124" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>814.74</v>
       </c>
       <c r="AD124" s="4" t="s">
@@ -23689,7 +23662,7 @@
         <v>308.07</v>
       </c>
       <c r="Y125" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>850.93</v>
       </c>
       <c r="Z125" s="9">
@@ -23755,7 +23728,7 @@
         <v>74</v>
       </c>
       <c r="Y126" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>120.99</v>
       </c>
       <c r="AD126" s="4" t="s">
@@ -23768,7 +23741,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:35" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>529</v>
       </c>
@@ -23809,7 +23782,7 @@
         <v>223.23</v>
       </c>
       <c r="Y127" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>729.98</v>
       </c>
       <c r="AD127" s="4" t="s">
@@ -23829,15 +23802,15 @@
       <c r="B128" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C128" s="60" t="s">
+      <c r="C128" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="D128" s="61"/>
-      <c r="E128" s="61"/>
-      <c r="F128" s="61"/>
-      <c r="G128" s="61"/>
-      <c r="H128" s="61"/>
-      <c r="I128" s="62"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="44"/>
       <c r="M128" s="6">
         <f>SUM(M129,M132,M135,M138,M143)</f>
         <v>181690.47</v>
@@ -24030,7 +24003,7 @@
         <v>10.48</v>
       </c>
       <c r="Y130" s="9">
-        <f t="shared" ref="Y130:Y147" si="17">ROUND(S130 / 1.2, 2)</f>
+        <f t="shared" ref="Y130:Y147" si="18">ROUND(S130 / 1.2, 2)</f>
         <v>6222.58</v>
       </c>
       <c r="AD130" s="4" t="s">
@@ -24082,7 +24055,7 @@
         <v>74</v>
       </c>
       <c r="Y131" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660.33</v>
       </c>
       <c r="AD131" s="4" t="s">
@@ -24178,7 +24151,7 @@
         <v>864.13</v>
       </c>
       <c r="Y132" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9881.81</v>
       </c>
       <c r="Z132" s="9">
@@ -24244,7 +24217,7 @@
         <v>74</v>
       </c>
       <c r="Y133" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3660.33</v>
       </c>
       <c r="AD133" s="4" t="s">
@@ -24296,7 +24269,7 @@
         <v>10.48</v>
       </c>
       <c r="Y134" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6222.58</v>
       </c>
       <c r="AD134" s="4" t="s">
@@ -24390,7 +24363,7 @@
         <v>277.83</v>
       </c>
       <c r="Y135" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8353.92</v>
       </c>
       <c r="Z135" s="9">
@@ -24456,7 +24429,7 @@
         <v>59.79</v>
       </c>
       <c r="Y136" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5915.07</v>
       </c>
       <c r="AD136" s="4" t="s">
@@ -24508,7 +24481,7 @@
         <v>74</v>
       </c>
       <c r="Y137" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2440.23</v>
       </c>
       <c r="AD137" s="4" t="s">
@@ -24602,7 +24575,7 @@
         <v>1885.32</v>
       </c>
       <c r="Y138" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>46908.78</v>
       </c>
       <c r="Z138" s="9">
@@ -24668,7 +24641,7 @@
         <v>41.4</v>
       </c>
       <c r="Y139" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9621.36</v>
       </c>
       <c r="AD139" s="4" t="s">
@@ -24720,7 +24693,7 @@
         <v>28.98</v>
       </c>
       <c r="Y140" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2020.13</v>
       </c>
       <c r="AD140" s="4" t="s">
@@ -24772,7 +24745,7 @@
         <v>66.67</v>
       </c>
       <c r="Y141" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>15493.33</v>
       </c>
       <c r="AD141" s="4" t="s">
@@ -24824,7 +24797,7 @@
         <v>257.83</v>
       </c>
       <c r="Y142" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>19773.75</v>
       </c>
       <c r="AD142" s="4" t="s">
@@ -24918,7 +24891,7 @@
         <v>2411.23</v>
       </c>
       <c r="Y143" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>76382.42</v>
       </c>
       <c r="Z143" s="9">
@@ -24984,7 +24957,7 @@
         <v>74</v>
       </c>
       <c r="Y144" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2886.44</v>
       </c>
       <c r="AD144" s="4" t="s">
@@ -25036,7 +25009,7 @@
         <v>45.83</v>
       </c>
       <c r="Y145" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4171.4799999999996</v>
       </c>
       <c r="AD145" s="4" t="s">
@@ -25088,7 +25061,7 @@
         <v>66.67</v>
       </c>
       <c r="Y146" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>38485.93</v>
       </c>
       <c r="AD146" s="4" t="s">
@@ -25140,7 +25113,7 @@
         <v>112.94</v>
       </c>
       <c r="Y147" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>30837.82</v>
       </c>
       <c r="AD147" s="4" t="s">
@@ -25160,15 +25133,15 @@
       <c r="B148" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="C148" s="60" t="s">
+      <c r="C148" s="42" t="s">
         <v>617</v>
       </c>
-      <c r="D148" s="61"/>
-      <c r="E148" s="61"/>
-      <c r="F148" s="61"/>
-      <c r="G148" s="61"/>
-      <c r="H148" s="61"/>
-      <c r="I148" s="62"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="43"/>
+      <c r="F148" s="43"/>
+      <c r="G148" s="43"/>
+      <c r="H148" s="43"/>
+      <c r="I148" s="44"/>
       <c r="M148" s="6">
         <f>SUM(M149,M153)</f>
         <v>447303.98</v>
@@ -25219,15 +25192,15 @@
       <c r="B149" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C149" s="60" t="s">
+      <c r="C149" s="42" t="s">
         <v>620</v>
       </c>
-      <c r="D149" s="61"/>
-      <c r="E149" s="61"/>
-      <c r="F149" s="61"/>
-      <c r="G149" s="61"/>
-      <c r="H149" s="61"/>
-      <c r="I149" s="62"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="43"/>
+      <c r="I149" s="44"/>
       <c r="M149" s="6">
         <f>SUM(M150)</f>
         <v>241468.92</v>
@@ -25490,15 +25463,15 @@
       <c r="B153" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C153" s="60" t="s">
+      <c r="C153" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="D153" s="61"/>
-      <c r="E153" s="61"/>
-      <c r="F153" s="61"/>
-      <c r="G153" s="61"/>
-      <c r="H153" s="61"/>
-      <c r="I153" s="62"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="44"/>
       <c r="M153" s="6">
         <f>SUM(M154,M157,M160,M163,M166)</f>
         <v>205835.06</v>
@@ -25652,7 +25625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>643</v>
       </c>
@@ -25693,7 +25666,7 @@
         <v>188.89</v>
       </c>
       <c r="Y155" s="9">
-        <f t="shared" ref="Y155:Y168" si="18">ROUND(S155 / 1.2, 2)</f>
+        <f t="shared" ref="Y155:Y168" si="19">ROUND(S155 / 1.2, 2)</f>
         <v>20462.63</v>
       </c>
       <c r="AD155" s="4" t="s">
@@ -25745,7 +25718,7 @@
         <v>74</v>
       </c>
       <c r="Y156" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4008.21</v>
       </c>
       <c r="AD156" s="4" t="s">
@@ -25839,7 +25812,7 @@
         <v>333.07</v>
       </c>
       <c r="Y157" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>49150.78</v>
       </c>
       <c r="Z157" s="9">
@@ -25905,7 +25878,7 @@
         <v>74</v>
       </c>
       <c r="Y158" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6988.56</v>
       </c>
       <c r="AD158" s="4" t="s">
@@ -25959,7 +25932,7 @@
         <v>223.23</v>
       </c>
       <c r="Y159" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>42164.31</v>
       </c>
       <c r="AD159" s="4" t="s">
@@ -26053,7 +26026,7 @@
         <v>322.77</v>
       </c>
       <c r="Y160" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>77802.91</v>
       </c>
       <c r="Z160" s="9">
@@ -26080,7 +26053,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>659</v>
       </c>
@@ -26121,7 +26094,7 @@
         <v>188.89</v>
       </c>
       <c r="Y161" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>65059.96</v>
       </c>
       <c r="AD161" s="4" t="s">
@@ -26173,7 +26146,7 @@
         <v>74</v>
       </c>
       <c r="Y162" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12743.91</v>
       </c>
       <c r="AD162" s="4" t="s">
@@ -26267,7 +26240,7 @@
         <v>333.07</v>
       </c>
       <c r="Y163" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>89667.38</v>
       </c>
       <c r="Z163" s="9">
@@ -26333,7 +26306,7 @@
         <v>74</v>
       </c>
       <c r="Y164" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>12749.46</v>
       </c>
       <c r="AD164" s="4" t="s">
@@ -26346,7 +26319,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="165" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>670</v>
       </c>
@@ -26387,7 +26360,7 @@
         <v>223.23</v>
       </c>
       <c r="Y165" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>76921.740000000005</v>
       </c>
       <c r="AD165" s="4" t="s">
@@ -26481,7 +26454,7 @@
         <v>333.07</v>
       </c>
       <c r="Y166" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5636.42</v>
       </c>
       <c r="Z166" s="9">
@@ -26508,7 +26481,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>675</v>
       </c>
@@ -26549,7 +26522,7 @@
         <v>223.23</v>
       </c>
       <c r="Y167" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>4835.2299999999996</v>
       </c>
       <c r="AD167" s="4" t="s">
@@ -26601,7 +26574,7 @@
         <v>74</v>
       </c>
       <c r="Y168" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>801.42</v>
       </c>
       <c r="AD168" s="4" t="s">
@@ -26621,15 +26594,15 @@
       <c r="B169" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C169" s="60" t="s">
+      <c r="C169" s="42" t="s">
         <v>684</v>
       </c>
-      <c r="D169" s="61"/>
-      <c r="E169" s="61"/>
-      <c r="F169" s="61"/>
-      <c r="G169" s="61"/>
-      <c r="H169" s="61"/>
-      <c r="I169" s="62"/>
+      <c r="D169" s="43"/>
+      <c r="E169" s="43"/>
+      <c r="F169" s="43"/>
+      <c r="G169" s="43"/>
+      <c r="H169" s="43"/>
+      <c r="I169" s="44"/>
       <c r="M169" s="6">
         <f>SUM(M170,M173,M177)</f>
         <v>13568325.229999999</v>
@@ -26822,7 +26795,7 @@
         <v>90.83</v>
       </c>
       <c r="Y171" s="9">
-        <f t="shared" ref="Y171:Y176" si="19">ROUND(S171 / 1.2, 2)</f>
+        <f t="shared" ref="Y171:Y176" si="20">ROUND(S171 / 1.2, 2)</f>
         <v>13352.5</v>
       </c>
       <c r="AD171" s="4" t="s">
@@ -26874,7 +26847,7 @@
         <v>698.41</v>
       </c>
       <c r="Y172" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>107799.33</v>
       </c>
       <c r="AD172" s="4" t="s">
@@ -26968,7 +26941,7 @@
         <v>6317.93</v>
       </c>
       <c r="Y173" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11185786.42</v>
       </c>
       <c r="Z173" s="9">
@@ -26995,7 +26968,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>706</v>
       </c>
@@ -27036,7 +27009,7 @@
         <v>5399.17</v>
       </c>
       <c r="Y174" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11026502.119999999</v>
       </c>
       <c r="AD174" s="4" t="s">
@@ -27088,7 +27061,7 @@
         <v>1083.83</v>
       </c>
       <c r="Y175" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>59610.38</v>
       </c>
       <c r="AD175" s="4" t="s">
@@ -27140,7 +27113,7 @@
         <v>1083.83</v>
       </c>
       <c r="Y176" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>99668.55</v>
       </c>
       <c r="AD176" s="4" t="s">
@@ -27307,29 +27280,29 @@
       </c>
     </row>
     <row r="179" spans="1:35" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="57" t="s">
+      <c r="A179" s="45" t="s">
         <v>728</v>
       </c>
-      <c r="B179" s="58"/>
-      <c r="C179" s="58"/>
-      <c r="D179" s="58"/>
-      <c r="E179" s="58"/>
-      <c r="F179" s="58"/>
-      <c r="G179" s="58"/>
-      <c r="H179" s="58"/>
-      <c r="I179" s="58"/>
-      <c r="J179" s="58"/>
-      <c r="K179" s="58"/>
-      <c r="L179" s="58"/>
-      <c r="M179" s="58"/>
-      <c r="N179" s="58"/>
-      <c r="O179" s="58"/>
-      <c r="P179" s="58"/>
-      <c r="Q179" s="58"/>
-      <c r="R179" s="58"/>
-      <c r="S179" s="58"/>
-      <c r="T179" s="58"/>
-      <c r="U179" s="59"/>
+      <c r="B179" s="46"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="46"/>
+      <c r="F179" s="46"/>
+      <c r="G179" s="46"/>
+      <c r="H179" s="46"/>
+      <c r="I179" s="46"/>
+      <c r="J179" s="46"/>
+      <c r="K179" s="46"/>
+      <c r="L179" s="46"/>
+      <c r="M179" s="46"/>
+      <c r="N179" s="46"/>
+      <c r="O179" s="46"/>
+      <c r="P179" s="46"/>
+      <c r="Q179" s="46"/>
+      <c r="R179" s="46"/>
+      <c r="S179" s="46"/>
+      <c r="T179" s="46"/>
+      <c r="U179" s="47"/>
     </row>
     <row r="180" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="30"/>
@@ -27345,20 +27318,20 @@
       <c r="E180" s="31"/>
       <c r="F180" s="31"/>
       <c r="G180" s="31"/>
-      <c r="H180" s="55"/>
-      <c r="I180" s="63"/>
-      <c r="J180" s="63"/>
-      <c r="K180" s="63"/>
-      <c r="L180" s="63"/>
-      <c r="M180" s="63"/>
-      <c r="N180" s="63"/>
-      <c r="O180" s="63"/>
-      <c r="P180" s="63"/>
-      <c r="Q180" s="63"/>
-      <c r="R180" s="63"/>
-      <c r="S180" s="63"/>
-      <c r="T180" s="63"/>
-      <c r="U180" s="56"/>
+      <c r="H180" s="39"/>
+      <c r="I180" s="40"/>
+      <c r="J180" s="40"/>
+      <c r="K180" s="40"/>
+      <c r="L180" s="40"/>
+      <c r="M180" s="40"/>
+      <c r="N180" s="40"/>
+      <c r="O180" s="40"/>
+      <c r="P180" s="40"/>
+      <c r="Q180" s="40"/>
+      <c r="R180" s="40"/>
+      <c r="S180" s="40"/>
+      <c r="T180" s="40"/>
+      <c r="U180" s="41"/>
     </row>
     <row r="181" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="30"/>
@@ -27374,20 +27347,20 @@
       <c r="E181" s="31"/>
       <c r="F181" s="31"/>
       <c r="G181" s="31"/>
-      <c r="H181" s="55"/>
-      <c r="I181" s="63"/>
-      <c r="J181" s="63"/>
-      <c r="K181" s="63"/>
-      <c r="L181" s="63"/>
-      <c r="M181" s="63"/>
-      <c r="N181" s="63"/>
-      <c r="O181" s="63"/>
-      <c r="P181" s="63"/>
-      <c r="Q181" s="63"/>
-      <c r="R181" s="63"/>
-      <c r="S181" s="63"/>
-      <c r="T181" s="63"/>
-      <c r="U181" s="56"/>
+      <c r="H181" s="39"/>
+      <c r="I181" s="40"/>
+      <c r="J181" s="40"/>
+      <c r="K181" s="40"/>
+      <c r="L181" s="40"/>
+      <c r="M181" s="40"/>
+      <c r="N181" s="40"/>
+      <c r="O181" s="40"/>
+      <c r="P181" s="40"/>
+      <c r="Q181" s="40"/>
+      <c r="R181" s="40"/>
+      <c r="S181" s="40"/>
+      <c r="T181" s="40"/>
+      <c r="U181" s="41"/>
     </row>
     <row r="182" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A182" s="30"/>
@@ -27403,20 +27376,20 @@
       <c r="E182" s="31"/>
       <c r="F182" s="31"/>
       <c r="G182" s="31"/>
-      <c r="H182" s="55"/>
-      <c r="I182" s="63"/>
-      <c r="J182" s="63"/>
-      <c r="K182" s="63"/>
-      <c r="L182" s="63"/>
-      <c r="M182" s="63"/>
-      <c r="N182" s="63"/>
-      <c r="O182" s="63"/>
-      <c r="P182" s="63"/>
-      <c r="Q182" s="63"/>
-      <c r="R182" s="63"/>
-      <c r="S182" s="63"/>
-      <c r="T182" s="63"/>
-      <c r="U182" s="56"/>
+      <c r="H182" s="39"/>
+      <c r="I182" s="40"/>
+      <c r="J182" s="40"/>
+      <c r="K182" s="40"/>
+      <c r="L182" s="40"/>
+      <c r="M182" s="40"/>
+      <c r="N182" s="40"/>
+      <c r="O182" s="40"/>
+      <c r="P182" s="40"/>
+      <c r="Q182" s="40"/>
+      <c r="R182" s="40"/>
+      <c r="S182" s="40"/>
+      <c r="T182" s="40"/>
+      <c r="U182" s="41"/>
     </row>
     <row r="183" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="30"/>
@@ -27432,20 +27405,20 @@
       <c r="E183" s="31"/>
       <c r="F183" s="31"/>
       <c r="G183" s="31"/>
-      <c r="H183" s="55"/>
-      <c r="I183" s="63"/>
-      <c r="J183" s="63"/>
-      <c r="K183" s="63"/>
-      <c r="L183" s="63"/>
-      <c r="M183" s="63"/>
-      <c r="N183" s="63"/>
-      <c r="O183" s="63"/>
-      <c r="P183" s="63"/>
-      <c r="Q183" s="63"/>
-      <c r="R183" s="63"/>
-      <c r="S183" s="63"/>
-      <c r="T183" s="63"/>
-      <c r="U183" s="56"/>
+      <c r="H183" s="39"/>
+      <c r="I183" s="40"/>
+      <c r="J183" s="40"/>
+      <c r="K183" s="40"/>
+      <c r="L183" s="40"/>
+      <c r="M183" s="40"/>
+      <c r="N183" s="40"/>
+      <c r="O183" s="40"/>
+      <c r="P183" s="40"/>
+      <c r="Q183" s="40"/>
+      <c r="R183" s="40"/>
+      <c r="S183" s="40"/>
+      <c r="T183" s="40"/>
+      <c r="U183" s="41"/>
     </row>
     <row r="184" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="30"/>
@@ -27461,20 +27434,20 @@
       <c r="E184" s="31"/>
       <c r="F184" s="31"/>
       <c r="G184" s="31"/>
-      <c r="H184" s="55"/>
-      <c r="I184" s="63"/>
-      <c r="J184" s="63"/>
-      <c r="K184" s="63"/>
-      <c r="L184" s="63"/>
-      <c r="M184" s="63"/>
-      <c r="N184" s="63"/>
-      <c r="O184" s="63"/>
-      <c r="P184" s="63"/>
-      <c r="Q184" s="63"/>
-      <c r="R184" s="63"/>
-      <c r="S184" s="63"/>
-      <c r="T184" s="63"/>
-      <c r="U184" s="56"/>
+      <c r="H184" s="39"/>
+      <c r="I184" s="40"/>
+      <c r="J184" s="40"/>
+      <c r="K184" s="40"/>
+      <c r="L184" s="40"/>
+      <c r="M184" s="40"/>
+      <c r="N184" s="40"/>
+      <c r="O184" s="40"/>
+      <c r="P184" s="40"/>
+      <c r="Q184" s="40"/>
+      <c r="R184" s="40"/>
+      <c r="S184" s="40"/>
+      <c r="T184" s="40"/>
+      <c r="U184" s="41"/>
     </row>
     <row r="185" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="30"/>
@@ -27490,20 +27463,20 @@
       <c r="E185" s="31"/>
       <c r="F185" s="31"/>
       <c r="G185" s="31"/>
-      <c r="H185" s="55"/>
-      <c r="I185" s="63"/>
-      <c r="J185" s="63"/>
-      <c r="K185" s="63"/>
-      <c r="L185" s="63"/>
-      <c r="M185" s="63"/>
-      <c r="N185" s="63"/>
-      <c r="O185" s="63"/>
-      <c r="P185" s="63"/>
-      <c r="Q185" s="63"/>
-      <c r="R185" s="63"/>
-      <c r="S185" s="63"/>
-      <c r="T185" s="63"/>
-      <c r="U185" s="56"/>
+      <c r="H185" s="39"/>
+      <c r="I185" s="40"/>
+      <c r="J185" s="40"/>
+      <c r="K185" s="40"/>
+      <c r="L185" s="40"/>
+      <c r="M185" s="40"/>
+      <c r="N185" s="40"/>
+      <c r="O185" s="40"/>
+      <c r="P185" s="40"/>
+      <c r="Q185" s="40"/>
+      <c r="R185" s="40"/>
+      <c r="S185" s="40"/>
+      <c r="T185" s="40"/>
+      <c r="U185" s="41"/>
     </row>
     <row r="186" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A186" s="30"/>
@@ -27519,20 +27492,20 @@
       <c r="E186" s="31"/>
       <c r="F186" s="31"/>
       <c r="G186" s="31"/>
-      <c r="H186" s="55"/>
-      <c r="I186" s="63"/>
-      <c r="J186" s="63"/>
-      <c r="K186" s="63"/>
-      <c r="L186" s="63"/>
-      <c r="M186" s="63"/>
-      <c r="N186" s="63"/>
-      <c r="O186" s="63"/>
-      <c r="P186" s="63"/>
-      <c r="Q186" s="63"/>
-      <c r="R186" s="63"/>
-      <c r="S186" s="63"/>
-      <c r="T186" s="63"/>
-      <c r="U186" s="56"/>
+      <c r="H186" s="39"/>
+      <c r="I186" s="40"/>
+      <c r="J186" s="40"/>
+      <c r="K186" s="40"/>
+      <c r="L186" s="40"/>
+      <c r="M186" s="40"/>
+      <c r="N186" s="40"/>
+      <c r="O186" s="40"/>
+      <c r="P186" s="40"/>
+      <c r="Q186" s="40"/>
+      <c r="R186" s="40"/>
+      <c r="S186" s="40"/>
+      <c r="T186" s="40"/>
+      <c r="U186" s="41"/>
     </row>
     <row r="187" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="30"/>
@@ -27548,22 +27521,22 @@
       <c r="E187" s="31"/>
       <c r="F187" s="31"/>
       <c r="G187" s="31"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="63"/>
-      <c r="J187" s="63"/>
-      <c r="K187" s="63"/>
-      <c r="L187" s="63"/>
-      <c r="M187" s="63"/>
-      <c r="N187" s="63"/>
-      <c r="O187" s="63"/>
-      <c r="P187" s="63"/>
-      <c r="Q187" s="63"/>
-      <c r="R187" s="63"/>
-      <c r="S187" s="63"/>
-      <c r="T187" s="63"/>
-      <c r="U187" s="56"/>
-    </row>
-    <row r="188" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H187" s="39"/>
+      <c r="I187" s="40"/>
+      <c r="J187" s="40"/>
+      <c r="K187" s="40"/>
+      <c r="L187" s="40"/>
+      <c r="M187" s="40"/>
+      <c r="N187" s="40"/>
+      <c r="O187" s="40"/>
+      <c r="P187" s="40"/>
+      <c r="Q187" s="40"/>
+      <c r="R187" s="40"/>
+      <c r="S187" s="40"/>
+      <c r="T187" s="40"/>
+      <c r="U187" s="41"/>
+    </row>
+    <row r="188" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A188" s="30"/>
       <c r="B188" s="5" t="s">
         <v>752</v>
@@ -27577,20 +27550,20 @@
       <c r="E188" s="31"/>
       <c r="F188" s="31"/>
       <c r="G188" s="31"/>
-      <c r="H188" s="55"/>
-      <c r="I188" s="63"/>
-      <c r="J188" s="63"/>
-      <c r="K188" s="63"/>
-      <c r="L188" s="63"/>
-      <c r="M188" s="63"/>
-      <c r="N188" s="63"/>
-      <c r="O188" s="63"/>
-      <c r="P188" s="63"/>
-      <c r="Q188" s="63"/>
-      <c r="R188" s="63"/>
-      <c r="S188" s="63"/>
-      <c r="T188" s="63"/>
-      <c r="U188" s="56"/>
+      <c r="H188" s="39"/>
+      <c r="I188" s="40"/>
+      <c r="J188" s="40"/>
+      <c r="K188" s="40"/>
+      <c r="L188" s="40"/>
+      <c r="M188" s="40"/>
+      <c r="N188" s="40"/>
+      <c r="O188" s="40"/>
+      <c r="P188" s="40"/>
+      <c r="Q188" s="40"/>
+      <c r="R188" s="40"/>
+      <c r="S188" s="40"/>
+      <c r="T188" s="40"/>
+      <c r="U188" s="41"/>
     </row>
     <row r="189" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A189" s="30"/>
@@ -27606,20 +27579,20 @@
       <c r="E189" s="31"/>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
-      <c r="H189" s="55"/>
-      <c r="I189" s="63"/>
-      <c r="J189" s="63"/>
-      <c r="K189" s="63"/>
-      <c r="L189" s="63"/>
-      <c r="M189" s="63"/>
-      <c r="N189" s="63"/>
-      <c r="O189" s="63"/>
-      <c r="P189" s="63"/>
-      <c r="Q189" s="63"/>
-      <c r="R189" s="63"/>
-      <c r="S189" s="63"/>
-      <c r="T189" s="63"/>
-      <c r="U189" s="56"/>
+      <c r="H189" s="39"/>
+      <c r="I189" s="40"/>
+      <c r="J189" s="40"/>
+      <c r="K189" s="40"/>
+      <c r="L189" s="40"/>
+      <c r="M189" s="40"/>
+      <c r="N189" s="40"/>
+      <c r="O189" s="40"/>
+      <c r="P189" s="40"/>
+      <c r="Q189" s="40"/>
+      <c r="R189" s="40"/>
+      <c r="S189" s="40"/>
+      <c r="T189" s="40"/>
+      <c r="U189" s="41"/>
     </row>
     <row r="190" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A190" s="30"/>
@@ -27635,20 +27608,20 @@
       <c r="E190" s="31"/>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
-      <c r="H190" s="55"/>
-      <c r="I190" s="63"/>
-      <c r="J190" s="63"/>
-      <c r="K190" s="63"/>
-      <c r="L190" s="63"/>
-      <c r="M190" s="63"/>
-      <c r="N190" s="63"/>
-      <c r="O190" s="63"/>
-      <c r="P190" s="63"/>
-      <c r="Q190" s="63"/>
-      <c r="R190" s="63"/>
-      <c r="S190" s="63"/>
-      <c r="T190" s="63"/>
-      <c r="U190" s="56"/>
+      <c r="H190" s="39"/>
+      <c r="I190" s="40"/>
+      <c r="J190" s="40"/>
+      <c r="K190" s="40"/>
+      <c r="L190" s="40"/>
+      <c r="M190" s="40"/>
+      <c r="N190" s="40"/>
+      <c r="O190" s="40"/>
+      <c r="P190" s="40"/>
+      <c r="Q190" s="40"/>
+      <c r="R190" s="40"/>
+      <c r="S190" s="40"/>
+      <c r="T190" s="40"/>
+      <c r="U190" s="41"/>
     </row>
     <row r="191" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" s="30"/>
@@ -27664,20 +27637,20 @@
       <c r="E191" s="31"/>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
-      <c r="H191" s="55"/>
-      <c r="I191" s="63"/>
-      <c r="J191" s="63"/>
-      <c r="K191" s="63"/>
-      <c r="L191" s="63"/>
-      <c r="M191" s="63"/>
-      <c r="N191" s="63"/>
-      <c r="O191" s="63"/>
-      <c r="P191" s="63"/>
-      <c r="Q191" s="63"/>
-      <c r="R191" s="63"/>
-      <c r="S191" s="63"/>
-      <c r="T191" s="63"/>
-      <c r="U191" s="56"/>
+      <c r="H191" s="39"/>
+      <c r="I191" s="40"/>
+      <c r="J191" s="40"/>
+      <c r="K191" s="40"/>
+      <c r="L191" s="40"/>
+      <c r="M191" s="40"/>
+      <c r="N191" s="40"/>
+      <c r="O191" s="40"/>
+      <c r="P191" s="40"/>
+      <c r="Q191" s="40"/>
+      <c r="R191" s="40"/>
+      <c r="S191" s="40"/>
+      <c r="T191" s="40"/>
+      <c r="U191" s="41"/>
     </row>
     <row r="192" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="30"/>
@@ -27693,20 +27666,20 @@
       <c r="E192" s="31"/>
       <c r="F192" s="31"/>
       <c r="G192" s="31"/>
-      <c r="H192" s="55"/>
-      <c r="I192" s="63"/>
-      <c r="J192" s="63"/>
-      <c r="K192" s="63"/>
-      <c r="L192" s="63"/>
-      <c r="M192" s="63"/>
-      <c r="N192" s="63"/>
-      <c r="O192" s="63"/>
-      <c r="P192" s="63"/>
-      <c r="Q192" s="63"/>
-      <c r="R192" s="63"/>
-      <c r="S192" s="63"/>
-      <c r="T192" s="63"/>
-      <c r="U192" s="56"/>
+      <c r="H192" s="39"/>
+      <c r="I192" s="40"/>
+      <c r="J192" s="40"/>
+      <c r="K192" s="40"/>
+      <c r="L192" s="40"/>
+      <c r="M192" s="40"/>
+      <c r="N192" s="40"/>
+      <c r="O192" s="40"/>
+      <c r="P192" s="40"/>
+      <c r="Q192" s="40"/>
+      <c r="R192" s="40"/>
+      <c r="S192" s="40"/>
+      <c r="T192" s="40"/>
+      <c r="U192" s="41"/>
     </row>
     <row r="193" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="30"/>
@@ -27722,22 +27695,22 @@
       <c r="E193" s="31"/>
       <c r="F193" s="31"/>
       <c r="G193" s="31"/>
-      <c r="H193" s="55" t="s">
+      <c r="H193" s="39" t="s">
         <v>770</v>
       </c>
-      <c r="I193" s="63"/>
-      <c r="J193" s="63"/>
-      <c r="K193" s="63"/>
-      <c r="L193" s="63"/>
-      <c r="M193" s="63"/>
-      <c r="N193" s="63"/>
-      <c r="O193" s="63"/>
-      <c r="P193" s="63"/>
-      <c r="Q193" s="63"/>
-      <c r="R193" s="63"/>
-      <c r="S193" s="63"/>
-      <c r="T193" s="63"/>
-      <c r="U193" s="56"/>
+      <c r="I193" s="40"/>
+      <c r="J193" s="40"/>
+      <c r="K193" s="40"/>
+      <c r="L193" s="40"/>
+      <c r="M193" s="40"/>
+      <c r="N193" s="40"/>
+      <c r="O193" s="40"/>
+      <c r="P193" s="40"/>
+      <c r="Q193" s="40"/>
+      <c r="R193" s="40"/>
+      <c r="S193" s="40"/>
+      <c r="T193" s="40"/>
+      <c r="U193" s="41"/>
     </row>
     <row r="194" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="30"/>
@@ -27753,20 +27726,20 @@
       <c r="E194" s="31"/>
       <c r="F194" s="31"/>
       <c r="G194" s="31"/>
-      <c r="H194" s="55"/>
-      <c r="I194" s="63"/>
-      <c r="J194" s="63"/>
-      <c r="K194" s="63"/>
-      <c r="L194" s="63"/>
-      <c r="M194" s="63"/>
-      <c r="N194" s="63"/>
-      <c r="O194" s="63"/>
-      <c r="P194" s="63"/>
-      <c r="Q194" s="63"/>
-      <c r="R194" s="63"/>
-      <c r="S194" s="63"/>
-      <c r="T194" s="63"/>
-      <c r="U194" s="56"/>
+      <c r="H194" s="39"/>
+      <c r="I194" s="40"/>
+      <c r="J194" s="40"/>
+      <c r="K194" s="40"/>
+      <c r="L194" s="40"/>
+      <c r="M194" s="40"/>
+      <c r="N194" s="40"/>
+      <c r="O194" s="40"/>
+      <c r="P194" s="40"/>
+      <c r="Q194" s="40"/>
+      <c r="R194" s="40"/>
+      <c r="S194" s="40"/>
+      <c r="T194" s="40"/>
+      <c r="U194" s="41"/>
     </row>
     <row r="195" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="30"/>
@@ -27780,20 +27753,20 @@
       <c r="E195" s="31"/>
       <c r="F195" s="31"/>
       <c r="G195" s="31"/>
-      <c r="H195" s="55"/>
-      <c r="I195" s="63"/>
-      <c r="J195" s="63"/>
-      <c r="K195" s="63"/>
-      <c r="L195" s="63"/>
-      <c r="M195" s="63"/>
-      <c r="N195" s="63"/>
-      <c r="O195" s="63"/>
-      <c r="P195" s="63"/>
-      <c r="Q195" s="63"/>
-      <c r="R195" s="63"/>
-      <c r="S195" s="63"/>
-      <c r="T195" s="63"/>
-      <c r="U195" s="56"/>
+      <c r="H195" s="39"/>
+      <c r="I195" s="40"/>
+      <c r="J195" s="40"/>
+      <c r="K195" s="40"/>
+      <c r="L195" s="40"/>
+      <c r="M195" s="40"/>
+      <c r="N195" s="40"/>
+      <c r="O195" s="40"/>
+      <c r="P195" s="40"/>
+      <c r="Q195" s="40"/>
+      <c r="R195" s="40"/>
+      <c r="S195" s="40"/>
+      <c r="T195" s="40"/>
+      <c r="U195" s="41"/>
     </row>
     <row r="196" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="30"/>
@@ -27807,20 +27780,20 @@
       <c r="E196" s="31"/>
       <c r="F196" s="31"/>
       <c r="G196" s="31"/>
-      <c r="H196" s="55"/>
-      <c r="I196" s="63"/>
-      <c r="J196" s="63"/>
-      <c r="K196" s="63"/>
-      <c r="L196" s="63"/>
-      <c r="M196" s="63"/>
-      <c r="N196" s="63"/>
-      <c r="O196" s="63"/>
-      <c r="P196" s="63"/>
-      <c r="Q196" s="63"/>
-      <c r="R196" s="63"/>
-      <c r="S196" s="63"/>
-      <c r="T196" s="63"/>
-      <c r="U196" s="56"/>
+      <c r="H196" s="39"/>
+      <c r="I196" s="40"/>
+      <c r="J196" s="40"/>
+      <c r="K196" s="40"/>
+      <c r="L196" s="40"/>
+      <c r="M196" s="40"/>
+      <c r="N196" s="40"/>
+      <c r="O196" s="40"/>
+      <c r="P196" s="40"/>
+      <c r="Q196" s="40"/>
+      <c r="R196" s="40"/>
+      <c r="S196" s="40"/>
+      <c r="T196" s="40"/>
+      <c r="U196" s="41"/>
     </row>
     <row r="197" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="30"/>
@@ -27834,23 +27807,70 @@
       <c r="E197" s="31"/>
       <c r="F197" s="31"/>
       <c r="G197" s="31"/>
-      <c r="H197" s="55"/>
-      <c r="I197" s="63"/>
-      <c r="J197" s="63"/>
-      <c r="K197" s="63"/>
-      <c r="L197" s="63"/>
-      <c r="M197" s="63"/>
-      <c r="N197" s="63"/>
-      <c r="O197" s="63"/>
-      <c r="P197" s="63"/>
-      <c r="Q197" s="63"/>
-      <c r="R197" s="63"/>
-      <c r="S197" s="63"/>
-      <c r="T197" s="63"/>
-      <c r="U197" s="56"/>
+      <c r="H197" s="39"/>
+      <c r="I197" s="40"/>
+      <c r="J197" s="40"/>
+      <c r="K197" s="40"/>
+      <c r="L197" s="40"/>
+      <c r="M197" s="40"/>
+      <c r="N197" s="40"/>
+      <c r="O197" s="40"/>
+      <c r="P197" s="40"/>
+      <c r="Q197" s="40"/>
+      <c r="R197" s="40"/>
+      <c r="S197" s="40"/>
+      <c r="T197" s="40"/>
+      <c r="U197" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="H195:U195"/>
+    <mergeCell ref="H196:U196"/>
+    <mergeCell ref="H197:U197"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="H189:U189"/>
+    <mergeCell ref="H190:U190"/>
+    <mergeCell ref="H191:U191"/>
+    <mergeCell ref="H192:U192"/>
+    <mergeCell ref="H193:U193"/>
+    <mergeCell ref="H194:U194"/>
+    <mergeCell ref="H183:U183"/>
+    <mergeCell ref="H184:U184"/>
+    <mergeCell ref="H185:U185"/>
+    <mergeCell ref="H186:U186"/>
+    <mergeCell ref="H187:U187"/>
+    <mergeCell ref="C128:I128"/>
+    <mergeCell ref="C148:I148"/>
+    <mergeCell ref="H188:U188"/>
+    <mergeCell ref="C153:I153"/>
+    <mergeCell ref="C169:I169"/>
+    <mergeCell ref="A179:U179"/>
+    <mergeCell ref="H180:U180"/>
+    <mergeCell ref="H181:U181"/>
+    <mergeCell ref="H182:U182"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C149:I149"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="C97:I97"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="A3:U3"/>
     <mergeCell ref="A4:U4"/>
@@ -27867,55 +27887,8 @@
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C149:I149"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="C67:I67"/>
-    <mergeCell ref="C97:I97"/>
-    <mergeCell ref="C128:I128"/>
-    <mergeCell ref="C148:I148"/>
-    <mergeCell ref="H188:U188"/>
-    <mergeCell ref="C153:I153"/>
-    <mergeCell ref="C169:I169"/>
-    <mergeCell ref="A179:U179"/>
-    <mergeCell ref="H180:U180"/>
-    <mergeCell ref="H181:U181"/>
-    <mergeCell ref="H182:U182"/>
-    <mergeCell ref="H195:U195"/>
-    <mergeCell ref="H196:U196"/>
-    <mergeCell ref="H197:U197"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="H189:U189"/>
-    <mergeCell ref="H190:U190"/>
-    <mergeCell ref="H191:U191"/>
-    <mergeCell ref="H192:U192"/>
-    <mergeCell ref="H193:U193"/>
-    <mergeCell ref="H194:U194"/>
-    <mergeCell ref="H183:U183"/>
-    <mergeCell ref="H184:U184"/>
-    <mergeCell ref="H185:U185"/>
-    <mergeCell ref="H186:U186"/>
-    <mergeCell ref="H187:U187"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/school_2/school_2_KP.xlsx
+++ b/school_2/school_2_KP.xlsx
@@ -2428,73 +2428,99 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2F5487"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <i/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF800000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
@@ -15502,17 +15528,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
@@ -16198,7 +16224,7 @@
         <v>17898487</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>51</v>
       </c>
@@ -16572,7 +16598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>82</v>
       </c>
@@ -16628,7 +16654,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>87</v>
       </c>
@@ -17106,7 +17132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>125</v>
       </c>
@@ -17975,7 +18001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>175</v>
       </c>
@@ -18248,7 +18274,7 @@
         <v>17909368</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>194</v>
       </c>
@@ -18358,7 +18384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>200</v>
       </c>
@@ -18412,7 +18438,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>206</v>
       </c>
@@ -18678,7 +18704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="243.75" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>226</v>
       </c>
@@ -18732,7 +18758,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>232</v>
       </c>
@@ -18786,7 +18812,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>238</v>
       </c>
@@ -18948,7 +18974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="262.5" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>249</v>
       </c>
@@ -19002,7 +19028,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="150" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>255</v>
       </c>
@@ -19271,7 +19297,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>271</v>
       </c>
@@ -19325,7 +19351,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>277</v>
       </c>
@@ -19487,7 +19513,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="206.25" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>285</v>
       </c>
@@ -19541,7 +19567,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="337.5" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>291</v>
       </c>
@@ -20139,7 +20165,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>334</v>
       </c>
@@ -20198,7 +20224,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>338</v>
       </c>
@@ -20308,7 +20334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>340</v>
       </c>
@@ -20685,7 +20711,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>363</v>
       </c>
@@ -21009,7 +21035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>376</v>
       </c>
@@ -21167,7 +21193,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>389</v>
       </c>
@@ -21489,7 +21515,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="150" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>401</v>
       </c>
@@ -21548,7 +21574,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="94" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="281.25" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>407</v>
       </c>
@@ -22083,7 +22109,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="150" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>446</v>
       </c>
@@ -22137,7 +22163,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="104" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>452</v>
       </c>
@@ -22243,7 +22269,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>461</v>
       </c>
@@ -22457,7 +22483,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="356.25" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>475</v>
       </c>
@@ -22619,7 +22645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="337.5" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>482</v>
       </c>
@@ -22885,7 +22911,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="225" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>495</v>
       </c>
@@ -23047,7 +23073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>502</v>
       </c>
@@ -23313,7 +23339,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>513</v>
       </c>
@@ -23475,7 +23501,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" ht="375" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>518</v>
       </c>
@@ -23741,7 +23767,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="393.75" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>529</v>
       </c>
@@ -23854,7 +23880,7 @@
         <v>17922383</v>
       </c>
     </row>
-    <row r="129" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>535</v>
       </c>
@@ -24068,7 +24094,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>547</v>
       </c>
@@ -25515,7 +25541,7 @@
         <v>17928898</v>
       </c>
     </row>
-    <row r="154" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>637</v>
       </c>
@@ -25625,7 +25651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" ht="150" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>643</v>
       </c>
@@ -25891,7 +25917,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="159" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" ht="300" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>654</v>
       </c>
@@ -26319,7 +26345,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="165" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>670</v>
       </c>
@@ -26481,7 +26507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>675</v>
       </c>
@@ -26968,7 +26994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" ht="375" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>706</v>
       </c>
@@ -27536,7 +27562,7 @@
       <c r="T187" s="40"/>
       <c r="U187" s="41"/>
     </row>
-    <row r="188" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="30"/>
       <c r="B188" s="5" t="s">
         <v>752</v>
@@ -27594,7 +27620,7 @@
       <c r="T189" s="40"/>
       <c r="U189" s="41"/>
     </row>
-    <row r="190" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A190" s="30"/>
       <c r="B190" s="5" t="s">
         <v>758</v>

--- a/school_2/school_2_KP.xlsx
+++ b/school_2/school_2_KP.xlsx
@@ -2795,39 +2795,6 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2858,19 +2825,52 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3267,79 +3267,79 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
     </row>
     <row r="5" spans="1:35" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
@@ -3369,115 +3369,115 @@
       <c r="I5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="56" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45" t="s">
         <v>780</v>
       </c>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="56">
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="45">
         <v>9701212867</v>
       </c>
-      <c r="T5" s="57"/>
-      <c r="U5" s="58"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="47"/>
     </row>
     <row r="6" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="39" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="41"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="41"/>
+      <c r="N6" s="52"/>
       <c r="O6" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="41"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="41"/>
+      <c r="T6" s="52"/>
       <c r="U6" s="48" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="49"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="49"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="49"/>
+      <c r="R7" s="50"/>
       <c r="S7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="49"/>
+      <c r="U7" s="50"/>
     </row>
     <row r="8" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -3531,15 +3531,15 @@
       <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
       <c r="M9" s="6">
         <f t="shared" si="0"/>
         <v>21918840.049999997</v>
@@ -3590,15 +3590,15 @@
       <c r="B10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
       <c r="M10" s="6">
         <f t="shared" si="0"/>
         <v>21918840.049999997</v>
@@ -3649,15 +3649,15 @@
       <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
       <c r="M11" s="6">
         <f t="shared" si="0"/>
         <v>21918840.049999997</v>
@@ -3708,15 +3708,15 @@
       <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
       <c r="M12" s="6">
         <f>SUM(M13,M66,M148,M169)</f>
         <v>21918840.049999997</v>
@@ -3767,15 +3767,15 @@
       <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
       <c r="M13" s="6">
         <f>SUM(M14,M37,M45)</f>
         <v>3570644.12</v>
@@ -3826,15 +3826,15 @@
       <c r="B14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
       <c r="M14" s="6">
         <f>SUM(M15,M19,M21,M29)</f>
         <v>2618573.91</v>
@@ -5259,15 +5259,15 @@
       <c r="B37" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="58"/>
       <c r="M37" s="6">
         <f>SUM(M38,M41,M43)</f>
         <v>122933.90000000001</v>
@@ -5852,15 +5852,15 @@
       <c r="B45" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="58"/>
       <c r="M45" s="6">
         <f>SUM(M46,M51,M55,M60,M63)</f>
         <v>829136.31</v>
@@ -7255,15 +7255,15 @@
       <c r="B66" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="44"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="58"/>
       <c r="M66" s="6">
         <f>SUM(M67,M97,M128)</f>
         <v>4332566.72</v>
@@ -7314,15 +7314,15 @@
       <c r="B67" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="44"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="58"/>
       <c r="M67" s="6">
         <f>SUM(M68,M71,M75,M79,M82,M85,M89,M92)</f>
         <v>2963619.5900000003</v>
@@ -9349,15 +9349,15 @@
       <c r="B97" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="56" t="s">
         <v>420</v>
       </c>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="44"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="58"/>
       <c r="M97" s="6">
         <f>SUM(M98,M107,M110,M113,M116,M119,M122,M125)</f>
         <v>1187256.6599999997</v>
@@ -11436,15 +11436,15 @@
       <c r="B128" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C128" s="42" t="s">
+      <c r="C128" s="56" t="s">
         <v>534</v>
       </c>
-      <c r="D128" s="43"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="43"/>
-      <c r="G128" s="43"/>
-      <c r="H128" s="43"/>
-      <c r="I128" s="44"/>
+      <c r="D128" s="57"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="57"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="57"/>
+      <c r="I128" s="58"/>
       <c r="M128" s="6">
         <f>SUM(M129,M132,M135,M138,M143)</f>
         <v>181690.47</v>
@@ -12767,15 +12767,15 @@
       <c r="B148" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="C148" s="42" t="s">
+      <c r="C148" s="56" t="s">
         <v>617</v>
       </c>
-      <c r="D148" s="43"/>
-      <c r="E148" s="43"/>
-      <c r="F148" s="43"/>
-      <c r="G148" s="43"/>
-      <c r="H148" s="43"/>
-      <c r="I148" s="44"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="57"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="58"/>
       <c r="M148" s="6">
         <f>SUM(M149,M153)</f>
         <v>447303.98</v>
@@ -12826,15 +12826,15 @@
       <c r="B149" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C149" s="42" t="s">
+      <c r="C149" s="56" t="s">
         <v>620</v>
       </c>
-      <c r="D149" s="43"/>
-      <c r="E149" s="43"/>
-      <c r="F149" s="43"/>
-      <c r="G149" s="43"/>
-      <c r="H149" s="43"/>
-      <c r="I149" s="44"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="58"/>
       <c r="M149" s="6">
         <f>SUM(M150)</f>
         <v>241468.92</v>
@@ -13097,15 +13097,15 @@
       <c r="B153" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C153" s="42" t="s">
+      <c r="C153" s="56" t="s">
         <v>636</v>
       </c>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="43"/>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
-      <c r="I153" s="44"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="57"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="57"/>
+      <c r="I153" s="58"/>
       <c r="M153" s="6">
         <f>SUM(M154,M157,M160,M163,M166)</f>
         <v>205835.06</v>
@@ -14228,15 +14228,15 @@
       <c r="B169" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C169" s="42" t="s">
+      <c r="C169" s="56" t="s">
         <v>684</v>
       </c>
-      <c r="D169" s="43"/>
-      <c r="E169" s="43"/>
-      <c r="F169" s="43"/>
-      <c r="G169" s="43"/>
-      <c r="H169" s="43"/>
-      <c r="I169" s="44"/>
+      <c r="D169" s="57"/>
+      <c r="E169" s="57"/>
+      <c r="F169" s="57"/>
+      <c r="G169" s="57"/>
+      <c r="H169" s="57"/>
+      <c r="I169" s="58"/>
       <c r="M169" s="6">
         <f>SUM(M170,M173,M177)</f>
         <v>13568325.229999999</v>
@@ -14914,29 +14914,29 @@
       </c>
     </row>
     <row r="179" spans="1:35" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="45" t="s">
+      <c r="A179" s="53" t="s">
         <v>728</v>
       </c>
-      <c r="B179" s="46"/>
-      <c r="C179" s="46"/>
-      <c r="D179" s="46"/>
-      <c r="E179" s="46"/>
-      <c r="F179" s="46"/>
-      <c r="G179" s="46"/>
-      <c r="H179" s="46"/>
-      <c r="I179" s="46"/>
-      <c r="J179" s="46"/>
-      <c r="K179" s="46"/>
-      <c r="L179" s="46"/>
-      <c r="M179" s="46"/>
-      <c r="N179" s="46"/>
-      <c r="O179" s="46"/>
-      <c r="P179" s="46"/>
-      <c r="Q179" s="46"/>
-      <c r="R179" s="46"/>
-      <c r="S179" s="46"/>
-      <c r="T179" s="46"/>
-      <c r="U179" s="47"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="54"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="54"/>
+      <c r="F179" s="54"/>
+      <c r="G179" s="54"/>
+      <c r="H179" s="54"/>
+      <c r="I179" s="54"/>
+      <c r="J179" s="54"/>
+      <c r="K179" s="54"/>
+      <c r="L179" s="54"/>
+      <c r="M179" s="54"/>
+      <c r="N179" s="54"/>
+      <c r="O179" s="54"/>
+      <c r="P179" s="54"/>
+      <c r="Q179" s="54"/>
+      <c r="R179" s="54"/>
+      <c r="S179" s="54"/>
+      <c r="T179" s="54"/>
+      <c r="U179" s="55"/>
     </row>
     <row r="180" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="30"/>
@@ -14952,20 +14952,20 @@
       <c r="E180" s="31"/>
       <c r="F180" s="31"/>
       <c r="G180" s="31"/>
-      <c r="H180" s="39"/>
-      <c r="I180" s="40"/>
-      <c r="J180" s="40"/>
-      <c r="K180" s="40"/>
-      <c r="L180" s="40"/>
-      <c r="M180" s="40"/>
-      <c r="N180" s="40"/>
-      <c r="O180" s="40"/>
-      <c r="P180" s="40"/>
-      <c r="Q180" s="40"/>
-      <c r="R180" s="40"/>
-      <c r="S180" s="40"/>
-      <c r="T180" s="40"/>
-      <c r="U180" s="41"/>
+      <c r="H180" s="51"/>
+      <c r="I180" s="59"/>
+      <c r="J180" s="59"/>
+      <c r="K180" s="59"/>
+      <c r="L180" s="59"/>
+      <c r="M180" s="59"/>
+      <c r="N180" s="59"/>
+      <c r="O180" s="59"/>
+      <c r="P180" s="59"/>
+      <c r="Q180" s="59"/>
+      <c r="R180" s="59"/>
+      <c r="S180" s="59"/>
+      <c r="T180" s="59"/>
+      <c r="U180" s="52"/>
     </row>
     <row r="181" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="30"/>
@@ -14981,20 +14981,20 @@
       <c r="E181" s="31"/>
       <c r="F181" s="31"/>
       <c r="G181" s="31"/>
-      <c r="H181" s="39"/>
-      <c r="I181" s="40"/>
-      <c r="J181" s="40"/>
-      <c r="K181" s="40"/>
-      <c r="L181" s="40"/>
-      <c r="M181" s="40"/>
-      <c r="N181" s="40"/>
-      <c r="O181" s="40"/>
-      <c r="P181" s="40"/>
-      <c r="Q181" s="40"/>
-      <c r="R181" s="40"/>
-      <c r="S181" s="40"/>
-      <c r="T181" s="40"/>
-      <c r="U181" s="41"/>
+      <c r="H181" s="51"/>
+      <c r="I181" s="59"/>
+      <c r="J181" s="59"/>
+      <c r="K181" s="59"/>
+      <c r="L181" s="59"/>
+      <c r="M181" s="59"/>
+      <c r="N181" s="59"/>
+      <c r="O181" s="59"/>
+      <c r="P181" s="59"/>
+      <c r="Q181" s="59"/>
+      <c r="R181" s="59"/>
+      <c r="S181" s="59"/>
+      <c r="T181" s="59"/>
+      <c r="U181" s="52"/>
     </row>
     <row r="182" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A182" s="30"/>
@@ -15010,20 +15010,20 @@
       <c r="E182" s="31"/>
       <c r="F182" s="31"/>
       <c r="G182" s="31"/>
-      <c r="H182" s="39"/>
-      <c r="I182" s="40"/>
-      <c r="J182" s="40"/>
-      <c r="K182" s="40"/>
-      <c r="L182" s="40"/>
-      <c r="M182" s="40"/>
-      <c r="N182" s="40"/>
-      <c r="O182" s="40"/>
-      <c r="P182" s="40"/>
-      <c r="Q182" s="40"/>
-      <c r="R182" s="40"/>
-      <c r="S182" s="40"/>
-      <c r="T182" s="40"/>
-      <c r="U182" s="41"/>
+      <c r="H182" s="51"/>
+      <c r="I182" s="59"/>
+      <c r="J182" s="59"/>
+      <c r="K182" s="59"/>
+      <c r="L182" s="59"/>
+      <c r="M182" s="59"/>
+      <c r="N182" s="59"/>
+      <c r="O182" s="59"/>
+      <c r="P182" s="59"/>
+      <c r="Q182" s="59"/>
+      <c r="R182" s="59"/>
+      <c r="S182" s="59"/>
+      <c r="T182" s="59"/>
+      <c r="U182" s="52"/>
     </row>
     <row r="183" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="30"/>
@@ -15039,20 +15039,20 @@
       <c r="E183" s="31"/>
       <c r="F183" s="31"/>
       <c r="G183" s="31"/>
-      <c r="H183" s="39"/>
-      <c r="I183" s="40"/>
-      <c r="J183" s="40"/>
-      <c r="K183" s="40"/>
-      <c r="L183" s="40"/>
-      <c r="M183" s="40"/>
-      <c r="N183" s="40"/>
-      <c r="O183" s="40"/>
-      <c r="P183" s="40"/>
-      <c r="Q183" s="40"/>
-      <c r="R183" s="40"/>
-      <c r="S183" s="40"/>
-      <c r="T183" s="40"/>
-      <c r="U183" s="41"/>
+      <c r="H183" s="51"/>
+      <c r="I183" s="59"/>
+      <c r="J183" s="59"/>
+      <c r="K183" s="59"/>
+      <c r="L183" s="59"/>
+      <c r="M183" s="59"/>
+      <c r="N183" s="59"/>
+      <c r="O183" s="59"/>
+      <c r="P183" s="59"/>
+      <c r="Q183" s="59"/>
+      <c r="R183" s="59"/>
+      <c r="S183" s="59"/>
+      <c r="T183" s="59"/>
+      <c r="U183" s="52"/>
     </row>
     <row r="184" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="30"/>
@@ -15068,20 +15068,20 @@
       <c r="E184" s="31"/>
       <c r="F184" s="31"/>
       <c r="G184" s="31"/>
-      <c r="H184" s="39"/>
-      <c r="I184" s="40"/>
-      <c r="J184" s="40"/>
-      <c r="K184" s="40"/>
-      <c r="L184" s="40"/>
-      <c r="M184" s="40"/>
-      <c r="N184" s="40"/>
-      <c r="O184" s="40"/>
-      <c r="P184" s="40"/>
-      <c r="Q184" s="40"/>
-      <c r="R184" s="40"/>
-      <c r="S184" s="40"/>
-      <c r="T184" s="40"/>
-      <c r="U184" s="41"/>
+      <c r="H184" s="51"/>
+      <c r="I184" s="59"/>
+      <c r="J184" s="59"/>
+      <c r="K184" s="59"/>
+      <c r="L184" s="59"/>
+      <c r="M184" s="59"/>
+      <c r="N184" s="59"/>
+      <c r="O184" s="59"/>
+      <c r="P184" s="59"/>
+      <c r="Q184" s="59"/>
+      <c r="R184" s="59"/>
+      <c r="S184" s="59"/>
+      <c r="T184" s="59"/>
+      <c r="U184" s="52"/>
     </row>
     <row r="185" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="30"/>
@@ -15097,20 +15097,20 @@
       <c r="E185" s="31"/>
       <c r="F185" s="31"/>
       <c r="G185" s="31"/>
-      <c r="H185" s="39"/>
-      <c r="I185" s="40"/>
-      <c r="J185" s="40"/>
-      <c r="K185" s="40"/>
-      <c r="L185" s="40"/>
-      <c r="M185" s="40"/>
-      <c r="N185" s="40"/>
-      <c r="O185" s="40"/>
-      <c r="P185" s="40"/>
-      <c r="Q185" s="40"/>
-      <c r="R185" s="40"/>
-      <c r="S185" s="40"/>
-      <c r="T185" s="40"/>
-      <c r="U185" s="41"/>
+      <c r="H185" s="51"/>
+      <c r="I185" s="59"/>
+      <c r="J185" s="59"/>
+      <c r="K185" s="59"/>
+      <c r="L185" s="59"/>
+      <c r="M185" s="59"/>
+      <c r="N185" s="59"/>
+      <c r="O185" s="59"/>
+      <c r="P185" s="59"/>
+      <c r="Q185" s="59"/>
+      <c r="R185" s="59"/>
+      <c r="S185" s="59"/>
+      <c r="T185" s="59"/>
+      <c r="U185" s="52"/>
     </row>
     <row r="186" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A186" s="30"/>
@@ -15126,20 +15126,20 @@
       <c r="E186" s="31"/>
       <c r="F186" s="31"/>
       <c r="G186" s="31"/>
-      <c r="H186" s="39"/>
-      <c r="I186" s="40"/>
-      <c r="J186" s="40"/>
-      <c r="K186" s="40"/>
-      <c r="L186" s="40"/>
-      <c r="M186" s="40"/>
-      <c r="N186" s="40"/>
-      <c r="O186" s="40"/>
-      <c r="P186" s="40"/>
-      <c r="Q186" s="40"/>
-      <c r="R186" s="40"/>
-      <c r="S186" s="40"/>
-      <c r="T186" s="40"/>
-      <c r="U186" s="41"/>
+      <c r="H186" s="51"/>
+      <c r="I186" s="59"/>
+      <c r="J186" s="59"/>
+      <c r="K186" s="59"/>
+      <c r="L186" s="59"/>
+      <c r="M186" s="59"/>
+      <c r="N186" s="59"/>
+      <c r="O186" s="59"/>
+      <c r="P186" s="59"/>
+      <c r="Q186" s="59"/>
+      <c r="R186" s="59"/>
+      <c r="S186" s="59"/>
+      <c r="T186" s="59"/>
+      <c r="U186" s="52"/>
     </row>
     <row r="187" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="30"/>
@@ -15155,20 +15155,20 @@
       <c r="E187" s="31"/>
       <c r="F187" s="31"/>
       <c r="G187" s="31"/>
-      <c r="H187" s="39"/>
-      <c r="I187" s="40"/>
-      <c r="J187" s="40"/>
-      <c r="K187" s="40"/>
-      <c r="L187" s="40"/>
-      <c r="M187" s="40"/>
-      <c r="N187" s="40"/>
-      <c r="O187" s="40"/>
-      <c r="P187" s="40"/>
-      <c r="Q187" s="40"/>
-      <c r="R187" s="40"/>
-      <c r="S187" s="40"/>
-      <c r="T187" s="40"/>
-      <c r="U187" s="41"/>
+      <c r="H187" s="51"/>
+      <c r="I187" s="59"/>
+      <c r="J187" s="59"/>
+      <c r="K187" s="59"/>
+      <c r="L187" s="59"/>
+      <c r="M187" s="59"/>
+      <c r="N187" s="59"/>
+      <c r="O187" s="59"/>
+      <c r="P187" s="59"/>
+      <c r="Q187" s="59"/>
+      <c r="R187" s="59"/>
+      <c r="S187" s="59"/>
+      <c r="T187" s="59"/>
+      <c r="U187" s="52"/>
     </row>
     <row r="188" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="30"/>
@@ -15184,20 +15184,20 @@
       <c r="E188" s="31"/>
       <c r="F188" s="31"/>
       <c r="G188" s="31"/>
-      <c r="H188" s="39"/>
-      <c r="I188" s="40"/>
-      <c r="J188" s="40"/>
-      <c r="K188" s="40"/>
-      <c r="L188" s="40"/>
-      <c r="M188" s="40"/>
-      <c r="N188" s="40"/>
-      <c r="O188" s="40"/>
-      <c r="P188" s="40"/>
-      <c r="Q188" s="40"/>
-      <c r="R188" s="40"/>
-      <c r="S188" s="40"/>
-      <c r="T188" s="40"/>
-      <c r="U188" s="41"/>
+      <c r="H188" s="51"/>
+      <c r="I188" s="59"/>
+      <c r="J188" s="59"/>
+      <c r="K188" s="59"/>
+      <c r="L188" s="59"/>
+      <c r="M188" s="59"/>
+      <c r="N188" s="59"/>
+      <c r="O188" s="59"/>
+      <c r="P188" s="59"/>
+      <c r="Q188" s="59"/>
+      <c r="R188" s="59"/>
+      <c r="S188" s="59"/>
+      <c r="T188" s="59"/>
+      <c r="U188" s="52"/>
     </row>
     <row r="189" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A189" s="30"/>
@@ -15213,20 +15213,20 @@
       <c r="E189" s="31"/>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
-      <c r="H189" s="39"/>
-      <c r="I189" s="40"/>
-      <c r="J189" s="40"/>
-      <c r="K189" s="40"/>
-      <c r="L189" s="40"/>
-      <c r="M189" s="40"/>
-      <c r="N189" s="40"/>
-      <c r="O189" s="40"/>
-      <c r="P189" s="40"/>
-      <c r="Q189" s="40"/>
-      <c r="R189" s="40"/>
-      <c r="S189" s="40"/>
-      <c r="T189" s="40"/>
-      <c r="U189" s="41"/>
+      <c r="H189" s="51"/>
+      <c r="I189" s="59"/>
+      <c r="J189" s="59"/>
+      <c r="K189" s="59"/>
+      <c r="L189" s="59"/>
+      <c r="M189" s="59"/>
+      <c r="N189" s="59"/>
+      <c r="O189" s="59"/>
+      <c r="P189" s="59"/>
+      <c r="Q189" s="59"/>
+      <c r="R189" s="59"/>
+      <c r="S189" s="59"/>
+      <c r="T189" s="59"/>
+      <c r="U189" s="52"/>
     </row>
     <row r="190" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A190" s="30"/>
@@ -15242,20 +15242,20 @@
       <c r="E190" s="31"/>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
-      <c r="H190" s="39"/>
-      <c r="I190" s="40"/>
-      <c r="J190" s="40"/>
-      <c r="K190" s="40"/>
-      <c r="L190" s="40"/>
-      <c r="M190" s="40"/>
-      <c r="N190" s="40"/>
-      <c r="O190" s="40"/>
-      <c r="P190" s="40"/>
-      <c r="Q190" s="40"/>
-      <c r="R190" s="40"/>
-      <c r="S190" s="40"/>
-      <c r="T190" s="40"/>
-      <c r="U190" s="41"/>
+      <c r="H190" s="51"/>
+      <c r="I190" s="59"/>
+      <c r="J190" s="59"/>
+      <c r="K190" s="59"/>
+      <c r="L190" s="59"/>
+      <c r="M190" s="59"/>
+      <c r="N190" s="59"/>
+      <c r="O190" s="59"/>
+      <c r="P190" s="59"/>
+      <c r="Q190" s="59"/>
+      <c r="R190" s="59"/>
+      <c r="S190" s="59"/>
+      <c r="T190" s="59"/>
+      <c r="U190" s="52"/>
     </row>
     <row r="191" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" s="30"/>
@@ -15271,20 +15271,20 @@
       <c r="E191" s="31"/>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
-      <c r="H191" s="39"/>
-      <c r="I191" s="40"/>
-      <c r="J191" s="40"/>
-      <c r="K191" s="40"/>
-      <c r="L191" s="40"/>
-      <c r="M191" s="40"/>
-      <c r="N191" s="40"/>
-      <c r="O191" s="40"/>
-      <c r="P191" s="40"/>
-      <c r="Q191" s="40"/>
-      <c r="R191" s="40"/>
-      <c r="S191" s="40"/>
-      <c r="T191" s="40"/>
-      <c r="U191" s="41"/>
+      <c r="H191" s="51"/>
+      <c r="I191" s="59"/>
+      <c r="J191" s="59"/>
+      <c r="K191" s="59"/>
+      <c r="L191" s="59"/>
+      <c r="M191" s="59"/>
+      <c r="N191" s="59"/>
+      <c r="O191" s="59"/>
+      <c r="P191" s="59"/>
+      <c r="Q191" s="59"/>
+      <c r="R191" s="59"/>
+      <c r="S191" s="59"/>
+      <c r="T191" s="59"/>
+      <c r="U191" s="52"/>
     </row>
     <row r="192" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="30"/>
@@ -15300,20 +15300,20 @@
       <c r="E192" s="31"/>
       <c r="F192" s="31"/>
       <c r="G192" s="31"/>
-      <c r="H192" s="39"/>
-      <c r="I192" s="40"/>
-      <c r="J192" s="40"/>
-      <c r="K192" s="40"/>
-      <c r="L192" s="40"/>
-      <c r="M192" s="40"/>
-      <c r="N192" s="40"/>
-      <c r="O192" s="40"/>
-      <c r="P192" s="40"/>
-      <c r="Q192" s="40"/>
-      <c r="R192" s="40"/>
-      <c r="S192" s="40"/>
-      <c r="T192" s="40"/>
-      <c r="U192" s="41"/>
+      <c r="H192" s="51"/>
+      <c r="I192" s="59"/>
+      <c r="J192" s="59"/>
+      <c r="K192" s="59"/>
+      <c r="L192" s="59"/>
+      <c r="M192" s="59"/>
+      <c r="N192" s="59"/>
+      <c r="O192" s="59"/>
+      <c r="P192" s="59"/>
+      <c r="Q192" s="59"/>
+      <c r="R192" s="59"/>
+      <c r="S192" s="59"/>
+      <c r="T192" s="59"/>
+      <c r="U192" s="52"/>
     </row>
     <row r="193" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="30"/>
@@ -15329,22 +15329,22 @@
       <c r="E193" s="31"/>
       <c r="F193" s="31"/>
       <c r="G193" s="31"/>
-      <c r="H193" s="39" t="s">
+      <c r="H193" s="51" t="s">
         <v>770</v>
       </c>
-      <c r="I193" s="40"/>
-      <c r="J193" s="40"/>
-      <c r="K193" s="40"/>
-      <c r="L193" s="40"/>
-      <c r="M193" s="40"/>
-      <c r="N193" s="40"/>
-      <c r="O193" s="40"/>
-      <c r="P193" s="40"/>
-      <c r="Q193" s="40"/>
-      <c r="R193" s="40"/>
-      <c r="S193" s="40"/>
-      <c r="T193" s="40"/>
-      <c r="U193" s="41"/>
+      <c r="I193" s="59"/>
+      <c r="J193" s="59"/>
+      <c r="K193" s="59"/>
+      <c r="L193" s="59"/>
+      <c r="M193" s="59"/>
+      <c r="N193" s="59"/>
+      <c r="O193" s="59"/>
+      <c r="P193" s="59"/>
+      <c r="Q193" s="59"/>
+      <c r="R193" s="59"/>
+      <c r="S193" s="59"/>
+      <c r="T193" s="59"/>
+      <c r="U193" s="52"/>
     </row>
     <row r="194" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="30"/>
@@ -15360,20 +15360,20 @@
       <c r="E194" s="31"/>
       <c r="F194" s="31"/>
       <c r="G194" s="31"/>
-      <c r="H194" s="39"/>
-      <c r="I194" s="40"/>
-      <c r="J194" s="40"/>
-      <c r="K194" s="40"/>
-      <c r="L194" s="40"/>
-      <c r="M194" s="40"/>
-      <c r="N194" s="40"/>
-      <c r="O194" s="40"/>
-      <c r="P194" s="40"/>
-      <c r="Q194" s="40"/>
-      <c r="R194" s="40"/>
-      <c r="S194" s="40"/>
-      <c r="T194" s="40"/>
-      <c r="U194" s="41"/>
+      <c r="H194" s="51"/>
+      <c r="I194" s="59"/>
+      <c r="J194" s="59"/>
+      <c r="K194" s="59"/>
+      <c r="L194" s="59"/>
+      <c r="M194" s="59"/>
+      <c r="N194" s="59"/>
+      <c r="O194" s="59"/>
+      <c r="P194" s="59"/>
+      <c r="Q194" s="59"/>
+      <c r="R194" s="59"/>
+      <c r="S194" s="59"/>
+      <c r="T194" s="59"/>
+      <c r="U194" s="52"/>
     </row>
     <row r="195" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A195" s="30"/>
@@ -15387,20 +15387,20 @@
       <c r="E195" s="31"/>
       <c r="F195" s="31"/>
       <c r="G195" s="31"/>
-      <c r="H195" s="39"/>
-      <c r="I195" s="40"/>
-      <c r="J195" s="40"/>
-      <c r="K195" s="40"/>
-      <c r="L195" s="40"/>
-      <c r="M195" s="40"/>
-      <c r="N195" s="40"/>
-      <c r="O195" s="40"/>
-      <c r="P195" s="40"/>
-      <c r="Q195" s="40"/>
-      <c r="R195" s="40"/>
-      <c r="S195" s="40"/>
-      <c r="T195" s="40"/>
-      <c r="U195" s="41"/>
+      <c r="H195" s="51"/>
+      <c r="I195" s="59"/>
+      <c r="J195" s="59"/>
+      <c r="K195" s="59"/>
+      <c r="L195" s="59"/>
+      <c r="M195" s="59"/>
+      <c r="N195" s="59"/>
+      <c r="O195" s="59"/>
+      <c r="P195" s="59"/>
+      <c r="Q195" s="59"/>
+      <c r="R195" s="59"/>
+      <c r="S195" s="59"/>
+      <c r="T195" s="59"/>
+      <c r="U195" s="52"/>
     </row>
     <row r="196" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="30"/>
@@ -15414,20 +15414,20 @@
       <c r="E196" s="31"/>
       <c r="F196" s="31"/>
       <c r="G196" s="31"/>
-      <c r="H196" s="39"/>
-      <c r="I196" s="40"/>
-      <c r="J196" s="40"/>
-      <c r="K196" s="40"/>
-      <c r="L196" s="40"/>
-      <c r="M196" s="40"/>
-      <c r="N196" s="40"/>
-      <c r="O196" s="40"/>
-      <c r="P196" s="40"/>
-      <c r="Q196" s="40"/>
-      <c r="R196" s="40"/>
-      <c r="S196" s="40"/>
-      <c r="T196" s="40"/>
-      <c r="U196" s="41"/>
+      <c r="H196" s="51"/>
+      <c r="I196" s="59"/>
+      <c r="J196" s="59"/>
+      <c r="K196" s="59"/>
+      <c r="L196" s="59"/>
+      <c r="M196" s="59"/>
+      <c r="N196" s="59"/>
+      <c r="O196" s="59"/>
+      <c r="P196" s="59"/>
+      <c r="Q196" s="59"/>
+      <c r="R196" s="59"/>
+      <c r="S196" s="59"/>
+      <c r="T196" s="59"/>
+      <c r="U196" s="52"/>
     </row>
     <row r="197" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="30"/>
@@ -15441,25 +15441,68 @@
       <c r="E197" s="31"/>
       <c r="F197" s="31"/>
       <c r="G197" s="31"/>
-      <c r="H197" s="39"/>
-      <c r="I197" s="40"/>
-      <c r="J197" s="40"/>
-      <c r="K197" s="40"/>
-      <c r="L197" s="40"/>
-      <c r="M197" s="40"/>
-      <c r="N197" s="40"/>
-      <c r="O197" s="40"/>
-      <c r="P197" s="40"/>
-      <c r="Q197" s="40"/>
-      <c r="R197" s="40"/>
-      <c r="S197" s="40"/>
-      <c r="T197" s="40"/>
-      <c r="U197" s="41"/>
+      <c r="H197" s="51"/>
+      <c r="I197" s="59"/>
+      <c r="J197" s="59"/>
+      <c r="K197" s="59"/>
+      <c r="L197" s="59"/>
+      <c r="M197" s="59"/>
+      <c r="N197" s="59"/>
+      <c r="O197" s="59"/>
+      <c r="P197" s="59"/>
+      <c r="Q197" s="59"/>
+      <c r="R197" s="59"/>
+      <c r="S197" s="59"/>
+      <c r="T197" s="59"/>
+      <c r="U197" s="52"/>
     </row>
   </sheetData>
   <sheetProtection password="C644" sheet="1" formatColumns="0" autoFilter="0"/>
   <autoFilter ref="A7:U7"/>
   <mergeCells count="59">
+    <mergeCell ref="H195:U195"/>
+    <mergeCell ref="H196:U196"/>
+    <mergeCell ref="H197:U197"/>
+    <mergeCell ref="H190:U190"/>
+    <mergeCell ref="H191:U191"/>
+    <mergeCell ref="H192:U192"/>
+    <mergeCell ref="H193:U193"/>
+    <mergeCell ref="H194:U194"/>
+    <mergeCell ref="H185:U185"/>
+    <mergeCell ref="H186:U186"/>
+    <mergeCell ref="H187:U187"/>
+    <mergeCell ref="H188:U188"/>
+    <mergeCell ref="H189:U189"/>
+    <mergeCell ref="H180:U180"/>
+    <mergeCell ref="H181:U181"/>
+    <mergeCell ref="H182:U182"/>
+    <mergeCell ref="H183:U183"/>
+    <mergeCell ref="H184:U184"/>
+    <mergeCell ref="C148:I148"/>
+    <mergeCell ref="C149:I149"/>
+    <mergeCell ref="C153:I153"/>
+    <mergeCell ref="C169:I169"/>
+    <mergeCell ref="A179:U179"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="C97:I97"/>
+    <mergeCell ref="C128:I128"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="A3:U3"/>
     <mergeCell ref="A4:U4"/>
@@ -15476,49 +15519,6 @@
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="C67:I67"/>
-    <mergeCell ref="C97:I97"/>
-    <mergeCell ref="C128:I128"/>
-    <mergeCell ref="C148:I148"/>
-    <mergeCell ref="C149:I149"/>
-    <mergeCell ref="C153:I153"/>
-    <mergeCell ref="C169:I169"/>
-    <mergeCell ref="A179:U179"/>
-    <mergeCell ref="H180:U180"/>
-    <mergeCell ref="H181:U181"/>
-    <mergeCell ref="H182:U182"/>
-    <mergeCell ref="H183:U183"/>
-    <mergeCell ref="H184:U184"/>
-    <mergeCell ref="H185:U185"/>
-    <mergeCell ref="H186:U186"/>
-    <mergeCell ref="H187:U187"/>
-    <mergeCell ref="H188:U188"/>
-    <mergeCell ref="H189:U189"/>
-    <mergeCell ref="H195:U195"/>
-    <mergeCell ref="H196:U196"/>
-    <mergeCell ref="H197:U197"/>
-    <mergeCell ref="H190:U190"/>
-    <mergeCell ref="H191:U191"/>
-    <mergeCell ref="H192:U192"/>
-    <mergeCell ref="H193:U193"/>
-    <mergeCell ref="H194:U194"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15528,8 +15528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15538,7 +15538,7 @@
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
     <col min="6" max="7" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
@@ -15613,79 +15613,79 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
     </row>
     <row r="5" spans="1:35" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="48" t="s">
@@ -15715,115 +15715,115 @@
       <c r="I5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="56" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45" t="s">
         <v>780</v>
       </c>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="56">
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="45">
         <v>9701212867</v>
       </c>
-      <c r="T5" s="57"/>
-      <c r="U5" s="58"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="47"/>
     </row>
     <row r="6" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="39" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="41"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="41"/>
+      <c r="N6" s="52"/>
       <c r="O6" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="41"/>
+      <c r="Q6" s="52"/>
       <c r="R6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="41"/>
+      <c r="T6" s="52"/>
       <c r="U6" s="48" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="49"/>
+      <c r="L7" s="50"/>
       <c r="M7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="49"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="49"/>
+      <c r="R7" s="50"/>
       <c r="S7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="T7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="49"/>
+      <c r="U7" s="50"/>
     </row>
     <row r="8" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
@@ -15877,15 +15877,15 @@
       <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
       <c r="M9" s="6">
         <f t="shared" si="0"/>
         <v>21909487.239999998</v>
@@ -15936,15 +15936,15 @@
       <c r="B10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="58"/>
       <c r="M10" s="6">
         <f t="shared" si="0"/>
         <v>21909487.239999998</v>
@@ -15995,15 +15995,15 @@
       <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
       <c r="M11" s="6">
         <f t="shared" si="0"/>
         <v>21909487.239999998</v>
@@ -16054,15 +16054,15 @@
       <c r="B12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="58"/>
       <c r="M12" s="6">
         <f>SUM(M13,M66,M148,M169)</f>
         <v>21909487.239999998</v>
@@ -16113,15 +16113,15 @@
       <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
       <c r="M13" s="6">
         <f>SUM(M14,M37,M45)</f>
         <v>3561291.31</v>
@@ -16172,15 +16172,15 @@
       <c r="B14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="58"/>
       <c r="M14" s="6">
         <f>SUM(M15,M19,M21,M29)</f>
         <v>2618573.91</v>
@@ -16224,7 +16224,7 @@
         <v>17898487</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>51</v>
       </c>
@@ -16490,7 +16490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>76</v>
       </c>
@@ -16654,7 +16654,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>87</v>
       </c>
@@ -16928,10 +16928,10 @@
       <c r="C25" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="60" t="s">
         <v>781</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="62" t="s">
         <v>784</v>
       </c>
       <c r="F25" s="18" t="s">
@@ -16984,8 +16984,8 @@
       <c r="C26" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="63"/>
       <c r="F26" s="18" t="s">
         <v>79</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>125</v>
       </c>
@@ -17412,10 +17412,10 @@
       <c r="C33" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="60" t="s">
         <v>781</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="62" t="s">
         <v>784</v>
       </c>
       <c r="F33" s="18" t="s">
@@ -17471,8 +17471,8 @@
       <c r="C34" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="18" t="s">
         <v>79</v>
       </c>
@@ -17629,15 +17629,15 @@
       <c r="B37" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="58"/>
       <c r="M37" s="6">
         <f>SUM(M38,M41,M43)</f>
         <v>122933.90000000001</v>
@@ -18001,7 +18001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>175</v>
       </c>
@@ -18222,15 +18222,15 @@
       <c r="B45" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="58"/>
       <c r="M45" s="6">
         <f>SUM(M46,M51,M55,M60,M63)</f>
         <v>819783.5</v>
@@ -18274,7 +18274,7 @@
         <v>17909368</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>194</v>
       </c>
@@ -18384,7 +18384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="150" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>200</v>
       </c>
@@ -18438,7 +18438,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>206</v>
       </c>
@@ -18492,7 +18492,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>211</v>
       </c>
@@ -18544,7 +18544,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>216</v>
       </c>
@@ -18704,7 +18704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="243.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>226</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>232</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>238</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="262.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>249</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="150" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>255</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>260</v>
       </c>
@@ -19137,7 +19137,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>263</v>
       </c>
@@ -19297,7 +19297,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>271</v>
       </c>
@@ -19351,7 +19351,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>277</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="206.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>285</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="337.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>291</v>
       </c>
@@ -19628,15 +19628,15 @@
       <c r="B66" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="44"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="58"/>
       <c r="M66" s="6">
         <f>SUM(M67,M97,M128)</f>
         <v>4332566.72</v>
@@ -19687,15 +19687,15 @@
       <c r="B67" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="44"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="58"/>
       <c r="M67" s="6">
         <f>SUM(M68,M71,M75,M79,M82,M85,M89,M92)</f>
         <v>2963619.5900000003</v>
@@ -19951,7 +19951,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>318</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>334</v>
       </c>
@@ -20224,7 +20224,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>338</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>340</v>
       </c>
@@ -20393,7 +20393,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>343</v>
       </c>
@@ -20497,7 +20497,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="79" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>349</v>
       </c>
@@ -20659,7 +20659,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="81" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>360</v>
       </c>
@@ -20711,7 +20711,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="82" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>363</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>365</v>
       </c>
@@ -21035,7 +21035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:35" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>376</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="88" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>386</v>
       </c>
@@ -21193,7 +21193,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="89" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>389</v>
       </c>
@@ -21303,7 +21303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>390</v>
       </c>
@@ -21407,7 +21407,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="92" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>396</v>
       </c>
@@ -21515,7 +21515,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="150" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>401</v>
       </c>
@@ -21574,7 +21574,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="94" spans="1:35" ht="281.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="150" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>407</v>
       </c>
@@ -21741,15 +21741,15 @@
       <c r="B97" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="56" t="s">
         <v>420</v>
       </c>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="44"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="58"/>
       <c r="M97" s="6">
         <f>SUM(M98,M107,M110,M113,M116,M119,M122,M125)</f>
         <v>1187256.6599999997</v>
@@ -22109,7 +22109,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="1:35" ht="150" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>446</v>
       </c>
@@ -22163,7 +22163,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="104" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>452</v>
       </c>
@@ -22217,7 +22217,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="105" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>458</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:35" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>461</v>
       </c>
@@ -22483,7 +22483,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="109" spans="1:35" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>475</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:35" ht="337.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>482</v>
       </c>
@@ -22911,7 +22911,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:35" ht="225" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>495</v>
       </c>
@@ -23073,7 +23073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:35" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>502</v>
       </c>
@@ -23339,7 +23339,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="121" spans="1:35" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>513</v>
       </c>
@@ -23501,7 +23501,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="1:35" ht="375" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>518</v>
       </c>
@@ -23767,7 +23767,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:35" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>529</v>
       </c>
@@ -23828,15 +23828,15 @@
       <c r="B128" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="C128" s="42" t="s">
+      <c r="C128" s="56" t="s">
         <v>534</v>
       </c>
-      <c r="D128" s="43"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="43"/>
-      <c r="G128" s="43"/>
-      <c r="H128" s="43"/>
-      <c r="I128" s="44"/>
+      <c r="D128" s="57"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="57"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="57"/>
+      <c r="I128" s="58"/>
       <c r="M128" s="6">
         <f>SUM(M129,M132,M135,M138,M143)</f>
         <v>181690.47</v>
@@ -23880,7 +23880,7 @@
         <v>17922383</v>
       </c>
     </row>
-    <row r="129" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>535</v>
       </c>
@@ -24094,7 +24094,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="132" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>547</v>
       </c>
@@ -24308,7 +24308,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="135" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>555</v>
       </c>
@@ -24680,7 +24680,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="140" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>578</v>
       </c>
@@ -25159,15 +25159,15 @@
       <c r="B148" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="C148" s="42" t="s">
+      <c r="C148" s="56" t="s">
         <v>617</v>
       </c>
-      <c r="D148" s="43"/>
-      <c r="E148" s="43"/>
-      <c r="F148" s="43"/>
-      <c r="G148" s="43"/>
-      <c r="H148" s="43"/>
-      <c r="I148" s="44"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="57"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="57"/>
+      <c r="I148" s="58"/>
       <c r="M148" s="6">
         <f>SUM(M149,M153)</f>
         <v>447303.98</v>
@@ -25218,15 +25218,15 @@
       <c r="B149" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="C149" s="42" t="s">
+      <c r="C149" s="56" t="s">
         <v>620</v>
       </c>
-      <c r="D149" s="43"/>
-      <c r="E149" s="43"/>
-      <c r="F149" s="43"/>
-      <c r="G149" s="43"/>
-      <c r="H149" s="43"/>
-      <c r="I149" s="44"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="57"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="57"/>
+      <c r="H149" s="57"/>
+      <c r="I149" s="58"/>
       <c r="M149" s="6">
         <f>SUM(M150)</f>
         <v>241468.92</v>
@@ -25378,7 +25378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>626</v>
       </c>
@@ -25489,15 +25489,15 @@
       <c r="B153" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C153" s="42" t="s">
+      <c r="C153" s="56" t="s">
         <v>636</v>
       </c>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="43"/>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
-      <c r="I153" s="44"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="57"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="57"/>
+      <c r="I153" s="58"/>
       <c r="M153" s="6">
         <f>SUM(M154,M157,M160,M163,M166)</f>
         <v>205835.06</v>
@@ -25651,7 +25651,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="155" spans="1:35" ht="150" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>643</v>
       </c>
@@ -25917,7 +25917,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="159" spans="1:35" ht="300" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>654</v>
       </c>
@@ -26079,7 +26079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="1:35" ht="206.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>659</v>
       </c>
@@ -26345,7 +26345,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="165" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>670</v>
       </c>
@@ -26507,7 +26507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:35" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>675</v>
       </c>
@@ -26620,15 +26620,15 @@
       <c r="B169" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C169" s="42" t="s">
+      <c r="C169" s="56" t="s">
         <v>684</v>
       </c>
-      <c r="D169" s="43"/>
-      <c r="E169" s="43"/>
-      <c r="F169" s="43"/>
-      <c r="G169" s="43"/>
-      <c r="H169" s="43"/>
-      <c r="I169" s="44"/>
+      <c r="D169" s="57"/>
+      <c r="E169" s="57"/>
+      <c r="F169" s="57"/>
+      <c r="G169" s="57"/>
+      <c r="H169" s="57"/>
+      <c r="I169" s="58"/>
       <c r="M169" s="6">
         <f>SUM(M170,M173,M177)</f>
         <v>13568325.229999999</v>
@@ -26994,7 +26994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="174" spans="1:35" ht="375" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>706</v>
       </c>
@@ -27306,29 +27306,29 @@
       </c>
     </row>
     <row r="179" spans="1:35" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="45" t="s">
+      <c r="A179" s="53" t="s">
         <v>728</v>
       </c>
-      <c r="B179" s="46"/>
-      <c r="C179" s="46"/>
-      <c r="D179" s="46"/>
-      <c r="E179" s="46"/>
-      <c r="F179" s="46"/>
-      <c r="G179" s="46"/>
-      <c r="H179" s="46"/>
-      <c r="I179" s="46"/>
-      <c r="J179" s="46"/>
-      <c r="K179" s="46"/>
-      <c r="L179" s="46"/>
-      <c r="M179" s="46"/>
-      <c r="N179" s="46"/>
-      <c r="O179" s="46"/>
-      <c r="P179" s="46"/>
-      <c r="Q179" s="46"/>
-      <c r="R179" s="46"/>
-      <c r="S179" s="46"/>
-      <c r="T179" s="46"/>
-      <c r="U179" s="47"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="54"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="54"/>
+      <c r="F179" s="54"/>
+      <c r="G179" s="54"/>
+      <c r="H179" s="54"/>
+      <c r="I179" s="54"/>
+      <c r="J179" s="54"/>
+      <c r="K179" s="54"/>
+      <c r="L179" s="54"/>
+      <c r="M179" s="54"/>
+      <c r="N179" s="54"/>
+      <c r="O179" s="54"/>
+      <c r="P179" s="54"/>
+      <c r="Q179" s="54"/>
+      <c r="R179" s="54"/>
+      <c r="S179" s="54"/>
+      <c r="T179" s="54"/>
+      <c r="U179" s="55"/>
     </row>
     <row r="180" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="30"/>
@@ -27344,20 +27344,20 @@
       <c r="E180" s="31"/>
       <c r="F180" s="31"/>
       <c r="G180" s="31"/>
-      <c r="H180" s="39"/>
-      <c r="I180" s="40"/>
-      <c r="J180" s="40"/>
-      <c r="K180" s="40"/>
-      <c r="L180" s="40"/>
-      <c r="M180" s="40"/>
-      <c r="N180" s="40"/>
-      <c r="O180" s="40"/>
-      <c r="P180" s="40"/>
-      <c r="Q180" s="40"/>
-      <c r="R180" s="40"/>
-      <c r="S180" s="40"/>
-      <c r="T180" s="40"/>
-      <c r="U180" s="41"/>
+      <c r="H180" s="51"/>
+      <c r="I180" s="59"/>
+      <c r="J180" s="59"/>
+      <c r="K180" s="59"/>
+      <c r="L180" s="59"/>
+      <c r="M180" s="59"/>
+      <c r="N180" s="59"/>
+      <c r="O180" s="59"/>
+      <c r="P180" s="59"/>
+      <c r="Q180" s="59"/>
+      <c r="R180" s="59"/>
+      <c r="S180" s="59"/>
+      <c r="T180" s="59"/>
+      <c r="U180" s="52"/>
     </row>
     <row r="181" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="30"/>
@@ -27373,20 +27373,20 @@
       <c r="E181" s="31"/>
       <c r="F181" s="31"/>
       <c r="G181" s="31"/>
-      <c r="H181" s="39"/>
-      <c r="I181" s="40"/>
-      <c r="J181" s="40"/>
-      <c r="K181" s="40"/>
-      <c r="L181" s="40"/>
-      <c r="M181" s="40"/>
-      <c r="N181" s="40"/>
-      <c r="O181" s="40"/>
-      <c r="P181" s="40"/>
-      <c r="Q181" s="40"/>
-      <c r="R181" s="40"/>
-      <c r="S181" s="40"/>
-      <c r="T181" s="40"/>
-      <c r="U181" s="41"/>
+      <c r="H181" s="51"/>
+      <c r="I181" s="59"/>
+      <c r="J181" s="59"/>
+      <c r="K181" s="59"/>
+      <c r="L181" s="59"/>
+      <c r="M181" s="59"/>
+      <c r="N181" s="59"/>
+      <c r="O181" s="59"/>
+      <c r="P181" s="59"/>
+      <c r="Q181" s="59"/>
+      <c r="R181" s="59"/>
+      <c r="S181" s="59"/>
+      <c r="T181" s="59"/>
+      <c r="U181" s="52"/>
     </row>
     <row r="182" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A182" s="30"/>
@@ -27402,20 +27402,20 @@
       <c r="E182" s="31"/>
       <c r="F182" s="31"/>
       <c r="G182" s="31"/>
-      <c r="H182" s="39"/>
-      <c r="I182" s="40"/>
-      <c r="J182" s="40"/>
-      <c r="K182" s="40"/>
-      <c r="L182" s="40"/>
-      <c r="M182" s="40"/>
-      <c r="N182" s="40"/>
-      <c r="O182" s="40"/>
-      <c r="P182" s="40"/>
-      <c r="Q182" s="40"/>
-      <c r="R182" s="40"/>
-      <c r="S182" s="40"/>
-      <c r="T182" s="40"/>
-      <c r="U182" s="41"/>
+      <c r="H182" s="51"/>
+      <c r="I182" s="59"/>
+      <c r="J182" s="59"/>
+      <c r="K182" s="59"/>
+      <c r="L182" s="59"/>
+      <c r="M182" s="59"/>
+      <c r="N182" s="59"/>
+      <c r="O182" s="59"/>
+      <c r="P182" s="59"/>
+      <c r="Q182" s="59"/>
+      <c r="R182" s="59"/>
+      <c r="S182" s="59"/>
+      <c r="T182" s="59"/>
+      <c r="U182" s="52"/>
     </row>
     <row r="183" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="30"/>
@@ -27431,20 +27431,20 @@
       <c r="E183" s="31"/>
       <c r="F183" s="31"/>
       <c r="G183" s="31"/>
-      <c r="H183" s="39"/>
-      <c r="I183" s="40"/>
-      <c r="J183" s="40"/>
-      <c r="K183" s="40"/>
-      <c r="L183" s="40"/>
-      <c r="M183" s="40"/>
-      <c r="N183" s="40"/>
-      <c r="O183" s="40"/>
-      <c r="P183" s="40"/>
-      <c r="Q183" s="40"/>
-      <c r="R183" s="40"/>
-      <c r="S183" s="40"/>
-      <c r="T183" s="40"/>
-      <c r="U183" s="41"/>
+      <c r="H183" s="51"/>
+      <c r="I183" s="59"/>
+      <c r="J183" s="59"/>
+      <c r="K183" s="59"/>
+      <c r="L183" s="59"/>
+      <c r="M183" s="59"/>
+      <c r="N183" s="59"/>
+      <c r="O183" s="59"/>
+      <c r="P183" s="59"/>
+      <c r="Q183" s="59"/>
+      <c r="R183" s="59"/>
+      <c r="S183" s="59"/>
+      <c r="T183" s="59"/>
+      <c r="U183" s="52"/>
     </row>
     <row r="184" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="30"/>
@@ -27460,20 +27460,20 @@
       <c r="E184" s="31"/>
       <c r="F184" s="31"/>
       <c r="G184" s="31"/>
-      <c r="H184" s="39"/>
-      <c r="I184" s="40"/>
-      <c r="J184" s="40"/>
-      <c r="K184" s="40"/>
-      <c r="L184" s="40"/>
-      <c r="M184" s="40"/>
-      <c r="N184" s="40"/>
-      <c r="O184" s="40"/>
-      <c r="P184" s="40"/>
-      <c r="Q184" s="40"/>
-      <c r="R184" s="40"/>
-      <c r="S184" s="40"/>
-      <c r="T184" s="40"/>
-      <c r="U184" s="41"/>
+      <c r="H184" s="51"/>
+      <c r="I184" s="59"/>
+      <c r="J184" s="59"/>
+      <c r="K184" s="59"/>
+      <c r="L184" s="59"/>
+      <c r="M184" s="59"/>
+      <c r="N184" s="59"/>
+      <c r="O184" s="59"/>
+      <c r="P184" s="59"/>
+      <c r="Q184" s="59"/>
+      <c r="R184" s="59"/>
+      <c r="S184" s="59"/>
+      <c r="T184" s="59"/>
+      <c r="U184" s="52"/>
     </row>
     <row r="185" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="30"/>
@@ -27489,20 +27489,20 @@
       <c r="E185" s="31"/>
       <c r="F185" s="31"/>
       <c r="G185" s="31"/>
-      <c r="H185" s="39"/>
-      <c r="I185" s="40"/>
-      <c r="J185" s="40"/>
-      <c r="K185" s="40"/>
-      <c r="L185" s="40"/>
-      <c r="M185" s="40"/>
-      <c r="N185" s="40"/>
-      <c r="O185" s="40"/>
-      <c r="P185" s="40"/>
-      <c r="Q185" s="40"/>
-      <c r="R185" s="40"/>
-      <c r="S185" s="40"/>
-      <c r="T185" s="40"/>
-      <c r="U185" s="41"/>
+      <c r="H185" s="51"/>
+      <c r="I185" s="59"/>
+      <c r="J185" s="59"/>
+      <c r="K185" s="59"/>
+      <c r="L185" s="59"/>
+      <c r="M185" s="59"/>
+      <c r="N185" s="59"/>
+      <c r="O185" s="59"/>
+      <c r="P185" s="59"/>
+      <c r="Q185" s="59"/>
+      <c r="R185" s="59"/>
+      <c r="S185" s="59"/>
+      <c r="T185" s="59"/>
+      <c r="U185" s="52"/>
     </row>
     <row r="186" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A186" s="30"/>
@@ -27518,20 +27518,20 @@
       <c r="E186" s="31"/>
       <c r="F186" s="31"/>
       <c r="G186" s="31"/>
-      <c r="H186" s="39"/>
-      <c r="I186" s="40"/>
-      <c r="J186" s="40"/>
-      <c r="K186" s="40"/>
-      <c r="L186" s="40"/>
-      <c r="M186" s="40"/>
-      <c r="N186" s="40"/>
-      <c r="O186" s="40"/>
-      <c r="P186" s="40"/>
-      <c r="Q186" s="40"/>
-      <c r="R186" s="40"/>
-      <c r="S186" s="40"/>
-      <c r="T186" s="40"/>
-      <c r="U186" s="41"/>
+      <c r="H186" s="51"/>
+      <c r="I186" s="59"/>
+      <c r="J186" s="59"/>
+      <c r="K186" s="59"/>
+      <c r="L186" s="59"/>
+      <c r="M186" s="59"/>
+      <c r="N186" s="59"/>
+      <c r="O186" s="59"/>
+      <c r="P186" s="59"/>
+      <c r="Q186" s="59"/>
+      <c r="R186" s="59"/>
+      <c r="S186" s="59"/>
+      <c r="T186" s="59"/>
+      <c r="U186" s="52"/>
     </row>
     <row r="187" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="30"/>
@@ -27547,20 +27547,20 @@
       <c r="E187" s="31"/>
       <c r="F187" s="31"/>
       <c r="G187" s="31"/>
-      <c r="H187" s="39"/>
-      <c r="I187" s="40"/>
-      <c r="J187" s="40"/>
-      <c r="K187" s="40"/>
-      <c r="L187" s="40"/>
-      <c r="M187" s="40"/>
-      <c r="N187" s="40"/>
-      <c r="O187" s="40"/>
-      <c r="P187" s="40"/>
-      <c r="Q187" s="40"/>
-      <c r="R187" s="40"/>
-      <c r="S187" s="40"/>
-      <c r="T187" s="40"/>
-      <c r="U187" s="41"/>
+      <c r="H187" s="51"/>
+      <c r="I187" s="59"/>
+      <c r="J187" s="59"/>
+      <c r="K187" s="59"/>
+      <c r="L187" s="59"/>
+      <c r="M187" s="59"/>
+      <c r="N187" s="59"/>
+      <c r="O187" s="59"/>
+      <c r="P187" s="59"/>
+      <c r="Q187" s="59"/>
+      <c r="R187" s="59"/>
+      <c r="S187" s="59"/>
+      <c r="T187" s="59"/>
+      <c r="U187" s="52"/>
     </row>
     <row r="188" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="30"/>
@@ -27576,20 +27576,20 @@
       <c r="E188" s="31"/>
       <c r="F188" s="31"/>
       <c r="G188" s="31"/>
-      <c r="H188" s="39"/>
-      <c r="I188" s="40"/>
-      <c r="J188" s="40"/>
-      <c r="K188" s="40"/>
-      <c r="L188" s="40"/>
-      <c r="M188" s="40"/>
-      <c r="N188" s="40"/>
-      <c r="O188" s="40"/>
-      <c r="P188" s="40"/>
-      <c r="Q188" s="40"/>
-      <c r="R188" s="40"/>
-      <c r="S188" s="40"/>
-      <c r="T188" s="40"/>
-      <c r="U188" s="41"/>
+      <c r="H188" s="51"/>
+      <c r="I188" s="59"/>
+      <c r="J188" s="59"/>
+      <c r="K188" s="59"/>
+      <c r="L188" s="59"/>
+      <c r="M188" s="59"/>
+      <c r="N188" s="59"/>
+      <c r="O188" s="59"/>
+      <c r="P188" s="59"/>
+      <c r="Q188" s="59"/>
+      <c r="R188" s="59"/>
+      <c r="S188" s="59"/>
+      <c r="T188" s="59"/>
+      <c r="U188" s="52"/>
     </row>
     <row r="189" spans="1:35" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A189" s="30"/>
@@ -27605,20 +27605,20 @@
       <c r="E189" s="31"/>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
-      <c r="H189" s="39"/>
-      <c r="I189" s="40"/>
-      <c r="J189" s="40"/>
-      <c r="K189" s="40"/>
-      <c r="L189" s="40"/>
-      <c r="M189" s="40"/>
-      <c r="N189" s="40"/>
-      <c r="O189" s="40"/>
-      <c r="P189" s="40"/>
-      <c r="Q189" s="40"/>
-      <c r="R189" s="40"/>
-      <c r="S189" s="40"/>
-      <c r="T189" s="40"/>
-      <c r="U189" s="41"/>
+      <c r="H189" s="51"/>
+      <c r="I189" s="59"/>
+      <c r="J189" s="59"/>
+      <c r="K189" s="59"/>
+      <c r="L189" s="59"/>
+      <c r="M189" s="59"/>
+      <c r="N189" s="59"/>
+      <c r="O189" s="59"/>
+      <c r="P189" s="59"/>
+      <c r="Q189" s="59"/>
+      <c r="R189" s="59"/>
+      <c r="S189" s="59"/>
+      <c r="T189" s="59"/>
+      <c r="U189" s="52"/>
     </row>
     <row r="190" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A190" s="30"/>
@@ -27634,20 +27634,20 @@
       <c r="E190" s="31"/>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
-      <c r="H190" s="39"/>
-      <c r="I190" s="40"/>
-      <c r="J190" s="40"/>
-      <c r="K190" s="40"/>
-      <c r="L190" s="40"/>
-      <c r="M190" s="40"/>
-      <c r="N190" s="40"/>
-      <c r="O190" s="40"/>
-      <c r="P190" s="40"/>
-      <c r="Q190" s="40"/>
-      <c r="R190" s="40"/>
-      <c r="S190" s="40"/>
-      <c r="T190" s="40"/>
-      <c r="U190" s="41"/>
+      <c r="H190" s="51"/>
+      <c r="I190" s="59"/>
+      <c r="J190" s="59"/>
+      <c r="K190" s="59"/>
+      <c r="L190" s="59"/>
+      <c r="M190" s="59"/>
+      <c r="N190" s="59"/>
+      <c r="O190" s="59"/>
+      <c r="P190" s="59"/>
+      <c r="Q190" s="59"/>
+      <c r="R190" s="59"/>
+      <c r="S190" s="59"/>
+      <c r="T190" s="59"/>
+      <c r="U190" s="52"/>
     </row>
     <row r="191" spans="1:35" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" s="30"/>
@@ -27663,20 +27663,20 @@
       <c r="E191" s="31"/>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
-      <c r="H191" s="39"/>
-      <c r="I191" s="40"/>
-      <c r="J191" s="40"/>
-      <c r="K191" s="40"/>
-      <c r="L191" s="40"/>
-      <c r="M191" s="40"/>
-      <c r="N191" s="40"/>
-      <c r="O191" s="40"/>
-      <c r="P191" s="40"/>
-      <c r="Q191" s="40"/>
-      <c r="R191" s="40"/>
-      <c r="S191" s="40"/>
-      <c r="T191" s="40"/>
-      <c r="U191" s="41"/>
+      <c r="H191" s="51"/>
+      <c r="I191" s="59"/>
+      <c r="J191" s="59"/>
+      <c r="K191" s="59"/>
+      <c r="L191" s="59"/>
+      <c r="M191" s="59"/>
+      <c r="N191" s="59"/>
+      <c r="O191" s="59"/>
+      <c r="P191" s="59"/>
+      <c r="Q191" s="59"/>
+      <c r="R191" s="59"/>
+      <c r="S191" s="59"/>
+      <c r="T191" s="59"/>
+      <c r="U191" s="52"/>
     </row>
     <row r="192" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="30"/>
@@ -27692,20 +27692,20 @@
       <c r="E192" s="31"/>
       <c r="F192" s="31"/>
       <c r="G192" s="31"/>
-      <c r="H192" s="39"/>
-      <c r="I192" s="40"/>
-      <c r="J192" s="40"/>
-      <c r="K192" s="40"/>
-      <c r="L192" s="40"/>
-      <c r="M192" s="40"/>
-      <c r="N192" s="40"/>
-      <c r="O192" s="40"/>
-      <c r="P192" s="40"/>
-      <c r="Q192" s="40"/>
-      <c r="R192" s="40"/>
-      <c r="S192" s="40"/>
-      <c r="T192" s="40"/>
-      <c r="U192" s="41"/>
+      <c r="H192" s="51"/>
+      <c r="I192" s="59"/>
+      <c r="J192" s="59"/>
+      <c r="K192" s="59"/>
+      <c r="L192" s="59"/>
+      <c r="M192" s="59"/>
+      <c r="N192" s="59"/>
+      <c r="O192" s="59"/>
+      <c r="P192" s="59"/>
+      <c r="Q192" s="59"/>
+      <c r="R192" s="59"/>
+      <c r="S192" s="59"/>
+      <c r="T192" s="59"/>
+      <c r="U192" s="52"/>
     </row>
     <row r="193" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="30"/>
@@ -27721,22 +27721,22 @@
       <c r="E193" s="31"/>
       <c r="F193" s="31"/>
       <c r="G193" s="31"/>
-      <c r="H193" s="39" t="s">
+      <c r="H193" s="51" t="s">
         <v>770</v>
       </c>
-      <c r="I193" s="40"/>
-      <c r="J193" s="40"/>
-      <c r="K193" s="40"/>
-      <c r="L193" s="40"/>
-      <c r="M193" s="40"/>
-      <c r="N193" s="40"/>
-      <c r="O193" s="40"/>
-      <c r="P193" s="40"/>
-      <c r="Q193" s="40"/>
-      <c r="R193" s="40"/>
-      <c r="S193" s="40"/>
-      <c r="T193" s="40"/>
-      <c r="U193" s="41"/>
+      <c r="I193" s="59"/>
+      <c r="J193" s="59"/>
+      <c r="K193" s="59"/>
+      <c r="L193" s="59"/>
+      <c r="M193" s="59"/>
+      <c r="N193" s="59"/>
+      <c r="O193" s="59"/>
+      <c r="P193" s="59"/>
+      <c r="Q193" s="59"/>
+      <c r="R193" s="59"/>
+      <c r="S193" s="59"/>
+      <c r="T193" s="59"/>
+      <c r="U193" s="52"/>
     </row>
     <row r="194" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="30"/>
@@ -27752,20 +27752,20 @@
       <c r="E194" s="31"/>
       <c r="F194" s="31"/>
       <c r="G194" s="31"/>
-      <c r="H194" s="39"/>
-      <c r="I194" s="40"/>
-      <c r="J194" s="40"/>
-      <c r="K194" s="40"/>
-      <c r="L194" s="40"/>
-      <c r="M194" s="40"/>
-      <c r="N194" s="40"/>
-      <c r="O194" s="40"/>
-      <c r="P194" s="40"/>
-      <c r="Q194" s="40"/>
-      <c r="R194" s="40"/>
-      <c r="S194" s="40"/>
-      <c r="T194" s="40"/>
-      <c r="U194" s="41"/>
+      <c r="H194" s="51"/>
+      <c r="I194" s="59"/>
+      <c r="J194" s="59"/>
+      <c r="K194" s="59"/>
+      <c r="L194" s="59"/>
+      <c r="M194" s="59"/>
+      <c r="N194" s="59"/>
+      <c r="O194" s="59"/>
+      <c r="P194" s="59"/>
+      <c r="Q194" s="59"/>
+      <c r="R194" s="59"/>
+      <c r="S194" s="59"/>
+      <c r="T194" s="59"/>
+      <c r="U194" s="52"/>
     </row>
     <row r="195" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="30"/>
@@ -27779,20 +27779,20 @@
       <c r="E195" s="31"/>
       <c r="F195" s="31"/>
       <c r="G195" s="31"/>
-      <c r="H195" s="39"/>
-      <c r="I195" s="40"/>
-      <c r="J195" s="40"/>
-      <c r="K195" s="40"/>
-      <c r="L195" s="40"/>
-      <c r="M195" s="40"/>
-      <c r="N195" s="40"/>
-      <c r="O195" s="40"/>
-      <c r="P195" s="40"/>
-      <c r="Q195" s="40"/>
-      <c r="R195" s="40"/>
-      <c r="S195" s="40"/>
-      <c r="T195" s="40"/>
-      <c r="U195" s="41"/>
+      <c r="H195" s="51"/>
+      <c r="I195" s="59"/>
+      <c r="J195" s="59"/>
+      <c r="K195" s="59"/>
+      <c r="L195" s="59"/>
+      <c r="M195" s="59"/>
+      <c r="N195" s="59"/>
+      <c r="O195" s="59"/>
+      <c r="P195" s="59"/>
+      <c r="Q195" s="59"/>
+      <c r="R195" s="59"/>
+      <c r="S195" s="59"/>
+      <c r="T195" s="59"/>
+      <c r="U195" s="52"/>
     </row>
     <row r="196" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="30"/>
@@ -27806,20 +27806,20 @@
       <c r="E196" s="31"/>
       <c r="F196" s="31"/>
       <c r="G196" s="31"/>
-      <c r="H196" s="39"/>
-      <c r="I196" s="40"/>
-      <c r="J196" s="40"/>
-      <c r="K196" s="40"/>
-      <c r="L196" s="40"/>
-      <c r="M196" s="40"/>
-      <c r="N196" s="40"/>
-      <c r="O196" s="40"/>
-      <c r="P196" s="40"/>
-      <c r="Q196" s="40"/>
-      <c r="R196" s="40"/>
-      <c r="S196" s="40"/>
-      <c r="T196" s="40"/>
-      <c r="U196" s="41"/>
+      <c r="H196" s="51"/>
+      <c r="I196" s="59"/>
+      <c r="J196" s="59"/>
+      <c r="K196" s="59"/>
+      <c r="L196" s="59"/>
+      <c r="M196" s="59"/>
+      <c r="N196" s="59"/>
+      <c r="O196" s="59"/>
+      <c r="P196" s="59"/>
+      <c r="Q196" s="59"/>
+      <c r="R196" s="59"/>
+      <c r="S196" s="59"/>
+      <c r="T196" s="59"/>
+      <c r="U196" s="52"/>
     </row>
     <row r="197" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="30"/>
@@ -27833,23 +27833,70 @@
       <c r="E197" s="31"/>
       <c r="F197" s="31"/>
       <c r="G197" s="31"/>
-      <c r="H197" s="39"/>
-      <c r="I197" s="40"/>
-      <c r="J197" s="40"/>
-      <c r="K197" s="40"/>
-      <c r="L197" s="40"/>
-      <c r="M197" s="40"/>
-      <c r="N197" s="40"/>
-      <c r="O197" s="40"/>
-      <c r="P197" s="40"/>
-      <c r="Q197" s="40"/>
-      <c r="R197" s="40"/>
-      <c r="S197" s="40"/>
-      <c r="T197" s="40"/>
-      <c r="U197" s="41"/>
+      <c r="H197" s="51"/>
+      <c r="I197" s="59"/>
+      <c r="J197" s="59"/>
+      <c r="K197" s="59"/>
+      <c r="L197" s="59"/>
+      <c r="M197" s="59"/>
+      <c r="N197" s="59"/>
+      <c r="O197" s="59"/>
+      <c r="P197" s="59"/>
+      <c r="Q197" s="59"/>
+      <c r="R197" s="59"/>
+      <c r="S197" s="59"/>
+      <c r="T197" s="59"/>
+      <c r="U197" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A3:U3"/>
+    <mergeCell ref="A4:U4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C149:I149"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="C97:I97"/>
+    <mergeCell ref="C128:I128"/>
+    <mergeCell ref="C148:I148"/>
+    <mergeCell ref="H188:U188"/>
+    <mergeCell ref="C153:I153"/>
+    <mergeCell ref="C169:I169"/>
+    <mergeCell ref="A179:U179"/>
+    <mergeCell ref="H180:U180"/>
+    <mergeCell ref="H181:U181"/>
+    <mergeCell ref="H182:U182"/>
     <mergeCell ref="H195:U195"/>
     <mergeCell ref="H196:U196"/>
     <mergeCell ref="H197:U197"/>
@@ -27866,53 +27913,6 @@
     <mergeCell ref="H185:U185"/>
     <mergeCell ref="H186:U186"/>
     <mergeCell ref="H187:U187"/>
-    <mergeCell ref="C128:I128"/>
-    <mergeCell ref="C148:I148"/>
-    <mergeCell ref="H188:U188"/>
-    <mergeCell ref="C153:I153"/>
-    <mergeCell ref="C169:I169"/>
-    <mergeCell ref="A179:U179"/>
-    <mergeCell ref="H180:U180"/>
-    <mergeCell ref="H181:U181"/>
-    <mergeCell ref="H182:U182"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="C149:I149"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="C67:I67"/>
-    <mergeCell ref="C97:I97"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A3:U3"/>
-    <mergeCell ref="A4:U4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
